--- a/Sustainable_Farm.xlsx
+++ b/Sustainable_Farm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3048" documentId="8_{E3A1674B-6A8A-4A99-A406-09518669CD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FB78A3D-0E32-40D7-8AD8-A53904BE2F9F}"/>
+  <xr:revisionPtr revIDLastSave="3073" documentId="8_{E3A1674B-6A8A-4A99-A406-09518669CD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6786D6F3-9E0C-4B4F-A957-5A209DD9EBBF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="13905" firstSheet="5" activeTab="1" xr2:uid="{07024F4D-E5C7-4B8A-AB6A-143DE046C366}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="13905" firstSheet="4" activeTab="2" xr2:uid="{07024F4D-E5C7-4B8A-AB6A-143DE046C366}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Farm" sheetId="5" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="460">
   <si>
     <t>Burkina Faso Sustainable Farm</t>
   </si>
@@ -300,6 +300,9 @@
     <t>Total Cost (FCFA)</t>
   </si>
   <si>
+    <t>Payback Period (Years)</t>
+  </si>
+  <si>
     <t>Minimum Estimate (10% gain)</t>
   </si>
   <si>
@@ -315,9 +318,6 @@
     <t>Annual Savings (FCFA)</t>
   </si>
   <si>
-    <t>Payback Period (Years)</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.31 </t>
   </si>
   <si>
@@ -327,6 +327,12 @@
     <t>SOLAR PHOTOVOLTAIC SYSTEM</t>
   </si>
   <si>
+    <t>average sun set in burkina faso (in hour)</t>
+  </si>
+  <si>
+    <t>8,3</t>
+  </si>
+  <si>
     <t xml:space="preserve">estimative energy need (Kwh): </t>
   </si>
   <si>
@@ -384,10 +390,10 @@
     <t>Equipement</t>
   </si>
   <si>
-    <t>unit cost</t>
-  </si>
-  <si>
-    <t>Total cost</t>
+    <t>unit cost (Fcfa)</t>
+  </si>
+  <si>
+    <t>Total cost (Fcfa)</t>
   </si>
   <si>
     <t>Equipements</t>
@@ -405,22 +411,25 @@
     <t xml:space="preserve">other installation cost </t>
   </si>
   <si>
+    <t xml:space="preserve"> Total cost (Fcfa)</t>
+  </si>
+  <si>
+    <t>total cost (Fcfa)</t>
+  </si>
+  <si>
+    <t>investment in euro</t>
+  </si>
+  <si>
+    <t>Anual sales Income in euro</t>
+  </si>
+  <si>
+    <t>104275,13</t>
+  </si>
+  <si>
+    <t>2370,89</t>
+  </si>
+  <si>
     <t> </t>
-  </si>
-  <si>
-    <t>total cost</t>
-  </si>
-  <si>
-    <t>investment in euro</t>
-  </si>
-  <si>
-    <t>Anual sales Income in euro</t>
-  </si>
-  <si>
-    <t>104275,13</t>
-  </si>
-  <si>
-    <t>2370,89</t>
   </si>
   <si>
     <t>other installation cost</t>
@@ -1540,13 +1549,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ [$CFA-340C]_-;\-* #,##0\ [$CFA-340C]_-;_-* &quot;-&quot;\ [$CFA-340C]_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="#,##0\ [$CFA-340C]"/>
-    <numFmt numFmtId="167" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ [$CFA-340C]_-;\-* #,##0\ [$CFA-340C]_-;_-* &quot;-&quot;\ [$CFA-340C]_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0\ [$CFA-340C]"/>
+    <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="69">
+  <fonts count="71">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1990,6 +1999,18 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1D1D1D"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="20">
     <fill>
@@ -2107,7 +2128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="94">
+  <borders count="95">
     <border>
       <left/>
       <right/>
@@ -3216,11 +3237,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="393">
+  <cellXfs count="399">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3429,13 +3465,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3517,7 +3553,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3525,14 +3561,14 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3541,7 +3577,7 @@
     <xf numFmtId="3" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3568,8 +3604,8 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -3702,7 +3738,7 @@
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="58" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="59" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="59" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3718,7 +3754,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="41" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3727,12 +3763,306 @@
     <xf numFmtId="0" fontId="41" fillId="19" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="62" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="64" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3742,77 +4072,44 @@
     <xf numFmtId="0" fontId="64" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3824,299 +4121,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="19" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4193,7 +4247,7 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6889,8 +6943,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA9ED5C1-8F67-486E-BC24-F8C277DB375F}" name="Table18" displayName="Table18" ref="F53:H59" totalsRowShown="0">
-  <autoFilter ref="F53:H59" xr:uid="{AA9ED5C1-8F67-486E-BC24-F8C277DB375F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AA9ED5C1-8F67-486E-BC24-F8C277DB375F}" name="Table18" displayName="Table18" ref="F54:H60" totalsRowShown="0">
+  <autoFilter ref="F54:H60" xr:uid="{AA9ED5C1-8F67-486E-BC24-F8C277DB375F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{52898641-8292-47B9-8E42-1DA3DEB41C92}" name="Equipements"/>
     <tableColumn id="2" xr3:uid="{0B4DF889-F9A6-4A86-915B-D5E268B8148E}" name="number"/>
@@ -7033,8 +7087,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2A577059-63BE-4454-9546-F6BEBA674F96}" name="Tableau10" displayName="Tableau10" ref="B10:D14" totalsRowShown="0" headerRowDxfId="119" headerRowBorderDxfId="117" tableBorderDxfId="118" totalsRowBorderDxfId="116">
-  <autoFilter ref="B10:D14" xr:uid="{2A577059-63BE-4454-9546-F6BEBA674F96}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2A577059-63BE-4454-9546-F6BEBA674F96}" name="Tableau10" displayName="Tableau10" ref="B12:D16" totalsRowShown="0" headerRowDxfId="119" headerRowBorderDxfId="117" tableBorderDxfId="118" totalsRowBorderDxfId="116">
+  <autoFilter ref="B12:D16" xr:uid="{2A577059-63BE-4454-9546-F6BEBA674F96}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E9820B82-9585-466C-BA7C-F306DF54E879}" name="Category" dataDxfId="115"/>
     <tableColumn id="2" xr3:uid="{679C8303-691A-4105-B03E-69B600DB7B75}" name="Minimum Estimate (10% gain)" dataDxfId="114"/>
@@ -7045,8 +7099,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F8B801D3-D696-49C8-80F5-D3EB630F7596}" name="Table6" displayName="Table6" ref="A11:E13" totalsRowShown="0" headerRowDxfId="112" headerRowBorderDxfId="110" tableBorderDxfId="111" totalsRowBorderDxfId="109">
-  <autoFilter ref="A11:E13" xr:uid="{F8B801D3-D696-49C8-80F5-D3EB630F7596}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F8B801D3-D696-49C8-80F5-D3EB630F7596}" name="Table6" displayName="Table6" ref="A12:E14" totalsRowShown="0" headerRowDxfId="112" headerRowBorderDxfId="110" tableBorderDxfId="111" totalsRowBorderDxfId="109">
+  <autoFilter ref="A12:E14" xr:uid="{F8B801D3-D696-49C8-80F5-D3EB630F7596}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{238ACA40-DFC5-4A8B-87E8-E8A8B65BB036}" name="equipments" dataDxfId="108"/>
     <tableColumn id="2" xr3:uid="{F15CA49A-928F-461D-80FF-B60E82B97790}" name="Suppliers" dataDxfId="107"/>
@@ -7059,20 +7113,20 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{6CA4F630-B093-4C98-947D-120A69DA5768}" name="Table11" displayName="Table11" ref="A26:C32" totalsRowShown="0" headerRowDxfId="103" headerRowBorderDxfId="101" tableBorderDxfId="102" totalsRowBorderDxfId="100">
-  <autoFilter ref="A26:C32" xr:uid="{6CA4F630-B093-4C98-947D-120A69DA5768}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{6CA4F630-B093-4C98-947D-120A69DA5768}" name="Table11" displayName="Table11" ref="A27:C33" totalsRowShown="0" headerRowDxfId="103" headerRowBorderDxfId="101" tableBorderDxfId="102" totalsRowBorderDxfId="100">
+  <autoFilter ref="A27:C33" xr:uid="{6CA4F630-B093-4C98-947D-120A69DA5768}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{7477F69C-FD9D-4414-BCE7-AE3ACD81B1E5}" name="Equipement" dataDxfId="99"/>
-    <tableColumn id="2" xr3:uid="{1BAB78C2-64D1-42A5-BCD8-FBC92C2D0E12}" name="unit cost" dataDxfId="98"/>
-    <tableColumn id="3" xr3:uid="{716B25DE-5548-4378-AF99-7E034742A0F4}" name="Total cost" dataDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{1BAB78C2-64D1-42A5-BCD8-FBC92C2D0E12}" name="unit cost (Fcfa)" dataDxfId="98"/>
+    <tableColumn id="3" xr3:uid="{716B25DE-5548-4378-AF99-7E034742A0F4}" name="Total cost (Fcfa)" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="IFX2023" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{9A4B3EDE-568D-4537-A7CE-B25555397425}" name="Table12" displayName="Table12" ref="A36:B37" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95" headerRowBorderDxfId="93" tableBorderDxfId="94" totalsRowBorderDxfId="92">
-  <autoFilter ref="A36:B37" xr:uid="{9A4B3EDE-568D-4537-A7CE-B25555397425}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{9A4B3EDE-568D-4537-A7CE-B25555397425}" name="Table12" displayName="Table12" ref="A37:B38" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95" headerRowBorderDxfId="93" tableBorderDxfId="94" totalsRowBorderDxfId="92">
+  <autoFilter ref="A37:B38" xr:uid="{9A4B3EDE-568D-4537-A7CE-B25555397425}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{BFFA8822-D95D-4504-8324-A7523071A615}" name="investment in euro" dataDxfId="91"/>
     <tableColumn id="2" xr3:uid="{8A2ED22C-EC83-4CD9-90E2-AE6965B34AF2}" name="Anual sales Income in euro" dataDxfId="90"/>
@@ -7082,8 +7136,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{24D1C92B-14E3-4C65-AC96-1ECA969443BA}" name="Table15" displayName="Table15" ref="A41:C45" totalsRowShown="0">
-  <autoFilter ref="A41:C45" xr:uid="{24D1C92B-14E3-4C65-AC96-1ECA969443BA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{24D1C92B-14E3-4C65-AC96-1ECA969443BA}" name="Table15" displayName="Table15" ref="A42:C46" totalsRowShown="0">
+  <autoFilter ref="A42:C46" xr:uid="{24D1C92B-14E3-4C65-AC96-1ECA969443BA}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{48833752-F7ED-453F-8AED-FFE0C354204D}" name="Price (Fcfa)"/>
     <tableColumn id="2" xr3:uid="{66CA988D-17F0-477A-818F-E19A1B675CBB}" name="Farm Size (Ha)"/>
@@ -7094,8 +7148,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{5DDBE12D-9AE9-4967-A85B-A15FE1B2428A}" name="Table14" displayName="Table14" ref="F26:H32" totalsRowShown="0">
-  <autoFilter ref="F26:H32" xr:uid="{5DDBE12D-9AE9-4967-A85B-A15FE1B2428A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{5DDBE12D-9AE9-4967-A85B-A15FE1B2428A}" name="Table14" displayName="Table14" ref="F27:H33" totalsRowShown="0">
+  <autoFilter ref="F27:H33" xr:uid="{5DDBE12D-9AE9-4967-A85B-A15FE1B2428A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B9000ED0-3BAE-4AAB-B9C2-909EBC8FDB69}" name="Equipements"/>
     <tableColumn id="2" xr3:uid="{5A46D0F0-C50D-462D-819D-B2A0DEFC32E2}" name="number"/>
@@ -7106,8 +7160,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{77FF5D4E-9077-457D-8265-49E7B5675B83}" name="Table16" displayName="Table16" ref="F35:H41" totalsRowShown="0">
-  <autoFilter ref="F35:H41" xr:uid="{77FF5D4E-9077-457D-8265-49E7B5675B83}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{77FF5D4E-9077-457D-8265-49E7B5675B83}" name="Table16" displayName="Table16" ref="F36:H42" totalsRowShown="0">
+  <autoFilter ref="F36:H42" xr:uid="{77FF5D4E-9077-457D-8265-49E7B5675B83}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{109A0E8B-3093-4B6D-909A-5B15606F3B45}" name="Equipements"/>
     <tableColumn id="2" xr3:uid="{F33FA032-8658-4C47-ADBE-8EFDB02A4B29}" name="number"/>
@@ -7118,8 +7172,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{32D3B4AC-9C9A-4B16-BFD1-FD0AD9848AC6}" name="Table17" displayName="Table17" ref="F44:H50" totalsRowShown="0">
-  <autoFilter ref="F44:H50" xr:uid="{32D3B4AC-9C9A-4B16-BFD1-FD0AD9848AC6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{32D3B4AC-9C9A-4B16-BFD1-FD0AD9848AC6}" name="Table17" displayName="Table17" ref="F45:H51" totalsRowShown="0">
+  <autoFilter ref="F45:H51" xr:uid="{32D3B4AC-9C9A-4B16-BFD1-FD0AD9848AC6}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8191A54B-15B6-45FD-8E4B-4507A6E47756}" name="Equipements"/>
     <tableColumn id="2" xr3:uid="{E8A45488-E4B4-4748-9445-85215D8B7292}" name="number"/>
@@ -7442,91 +7496,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="37.5" customHeight="1">
-      <c r="B1" s="319" t="s">
+      <c r="B1" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="319"/>
-      <c r="D1" s="319"/>
-      <c r="E1" s="319"/>
-      <c r="F1" s="319"/>
-      <c r="G1" s="319"/>
-      <c r="H1" s="319"/>
-      <c r="I1" s="319"/>
+      <c r="C1" s="290"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="290"/>
+      <c r="G1" s="290"/>
+      <c r="H1" s="290"/>
+      <c r="I1" s="290"/>
     </row>
     <row r="2" spans="1:9" ht="37.5" customHeight="1">
-      <c r="B2" s="319"/>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
-      <c r="F2" s="319"/>
-      <c r="G2" s="319"/>
-      <c r="H2" s="319"/>
-      <c r="I2" s="319"/>
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290"/>
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1">
-      <c r="A7" s="328" t="s">
+      <c r="A7" s="299" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="328"/>
-      <c r="C7" s="329" t="s">
+      <c r="B7" s="299"/>
+      <c r="C7" s="300" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1">
-      <c r="A8" s="328"/>
-      <c r="B8" s="328"/>
-      <c r="C8" s="330"/>
+      <c r="A8" s="299"/>
+      <c r="B8" s="299"/>
+      <c r="C8" s="301"/>
       <c r="D8" s="97"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="B12" s="334" t="s">
+      <c r="B12" s="361" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="334" t="s">
+      <c r="C12" s="361" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="334" t="s">
+      <c r="D12" s="361" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="334" t="s">
+      <c r="E12" s="361" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="334" t="s">
+      <c r="F12" s="361" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="334"/>
+      <c r="G12" s="361"/>
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1">
-      <c r="B13" s="334"/>
-      <c r="C13" s="334"/>
-      <c r="D13" s="334"/>
-      <c r="E13" s="334"/>
-      <c r="F13" s="334"/>
-      <c r="G13" s="334"/>
+      <c r="B13" s="361"/>
+      <c r="C13" s="361"/>
+      <c r="D13" s="361"/>
+      <c r="E13" s="361"/>
+      <c r="F13" s="361"/>
+      <c r="G13" s="361"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A14" s="264" t="s">
+      <c r="A14" s="362" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="262" t="s">
+      <c r="B14" s="358" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="263" t="s">
+      <c r="D14" s="359" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="331" t="s">
+      <c r="F14" s="360" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="331"/>
+      <c r="G14" s="360"/>
     </row>
     <row r="15" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A15" s="264" t="s">
+      <c r="A15" s="362" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="158" t="s">
@@ -7541,13 +7595,13 @@
       <c r="E15" s="65">
         <v>5</v>
       </c>
-      <c r="F15" s="332">
+      <c r="F15" s="302">
         <v>10</v>
       </c>
-      <c r="G15" s="332"/>
+      <c r="G15" s="302"/>
     </row>
     <row r="16" spans="1:9" ht="24" customHeight="1">
-      <c r="A16" s="265" t="s">
+      <c r="A16" s="363" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="166">
@@ -7561,18 +7615,18 @@
         <f>D115+D124+D131+D136+D141+D146+5000000*3+10000000</f>
         <v>186131099</v>
       </c>
-      <c r="E16" s="260">
+      <c r="E16" s="261">
         <f>D154+D163+D170+D175+D180+D185+5000000*5+10000000</f>
         <v>216170538</v>
       </c>
-      <c r="F16" s="333">
+      <c r="F16" s="303">
         <f>D193+D202+D209+D214+D219+D224+5000000*10+10000000</f>
         <v>282628302</v>
       </c>
-      <c r="G16" s="333"/>
+      <c r="G16" s="303"/>
     </row>
     <row r="17" spans="1:20" ht="35.25" customHeight="1">
-      <c r="A17" s="266" t="s">
+      <c r="A17" s="364" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="166">
@@ -7590,11 +7644,11 @@
         <f>45000*10</f>
         <v>450000</v>
       </c>
-      <c r="F17" s="332">
+      <c r="F17" s="302">
         <f>45000*12</f>
         <v>540000</v>
       </c>
-      <c r="G17" s="332"/>
+      <c r="G17" s="302"/>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="163"/>
@@ -7613,216 +7667,216 @@
       <c r="F19" s="65"/>
     </row>
     <row r="21" spans="1:20" ht="15" customHeight="1">
-      <c r="A21" s="320" t="s">
+      <c r="A21" s="291" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="320"/>
-      <c r="C21" s="320"/>
-      <c r="D21" s="320"/>
-      <c r="E21" s="320"/>
-      <c r="F21" s="320"/>
-      <c r="G21" s="326" t="s">
+      <c r="B21" s="291"/>
+      <c r="C21" s="291"/>
+      <c r="D21" s="291"/>
+      <c r="E21" s="291"/>
+      <c r="F21" s="291"/>
+      <c r="G21" s="297" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="326"/>
-      <c r="I21" s="326"/>
-      <c r="J21" s="326"/>
-      <c r="K21" s="326"/>
-      <c r="L21" s="326"/>
-      <c r="M21" s="326"/>
-      <c r="N21" s="326"/>
-      <c r="O21" s="326"/>
-      <c r="P21" s="326"/>
-      <c r="Q21" s="326"/>
-      <c r="R21" s="326"/>
+      <c r="H21" s="297"/>
+      <c r="I21" s="297"/>
+      <c r="J21" s="297"/>
+      <c r="K21" s="297"/>
+      <c r="L21" s="297"/>
+      <c r="M21" s="297"/>
+      <c r="N21" s="297"/>
+      <c r="O21" s="297"/>
+      <c r="P21" s="297"/>
+      <c r="Q21" s="297"/>
+      <c r="R21" s="297"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="320"/>
-      <c r="B22" s="320"/>
-      <c r="C22" s="320"/>
-      <c r="D22" s="320"/>
-      <c r="E22" s="320"/>
-      <c r="F22" s="320"/>
-      <c r="G22" s="326"/>
-      <c r="H22" s="326"/>
-      <c r="I22" s="326"/>
-      <c r="J22" s="326"/>
-      <c r="K22" s="326"/>
-      <c r="L22" s="326"/>
-      <c r="M22" s="326"/>
-      <c r="N22" s="326"/>
-      <c r="O22" s="326"/>
-      <c r="P22" s="326"/>
-      <c r="Q22" s="326"/>
-      <c r="R22" s="326"/>
+      <c r="A22" s="291"/>
+      <c r="B22" s="291"/>
+      <c r="C22" s="291"/>
+      <c r="D22" s="291"/>
+      <c r="E22" s="291"/>
+      <c r="F22" s="291"/>
+      <c r="G22" s="297"/>
+      <c r="H22" s="297"/>
+      <c r="I22" s="297"/>
+      <c r="J22" s="297"/>
+      <c r="K22" s="297"/>
+      <c r="L22" s="297"/>
+      <c r="M22" s="297"/>
+      <c r="N22" s="297"/>
+      <c r="O22" s="297"/>
+      <c r="P22" s="297"/>
+      <c r="Q22" s="297"/>
+      <c r="R22" s="297"/>
     </row>
     <row r="23" spans="1:20" ht="15">
-      <c r="A23" s="323" t="s">
+      <c r="A23" s="294" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="323"/>
-      <c r="C23" s="323"/>
-      <c r="D23" s="323"/>
-      <c r="E23" s="323"/>
-      <c r="F23" s="323"/>
-      <c r="G23" s="321" t="s">
+      <c r="B23" s="294"/>
+      <c r="C23" s="294"/>
+      <c r="D23" s="294"/>
+      <c r="E23" s="294"/>
+      <c r="F23" s="294"/>
+      <c r="G23" s="292" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="321"/>
-      <c r="I23" s="321"/>
-      <c r="J23" s="321"/>
-      <c r="K23" s="321"/>
-      <c r="L23" s="321"/>
-      <c r="M23" s="321"/>
-      <c r="N23" s="321"/>
-      <c r="O23" s="321"/>
-      <c r="P23" s="321"/>
-      <c r="Q23" s="321"/>
-      <c r="R23" s="322"/>
+      <c r="H23" s="292"/>
+      <c r="I23" s="292"/>
+      <c r="J23" s="292"/>
+      <c r="K23" s="292"/>
+      <c r="L23" s="292"/>
+      <c r="M23" s="292"/>
+      <c r="N23" s="292"/>
+      <c r="O23" s="292"/>
+      <c r="P23" s="292"/>
+      <c r="Q23" s="292"/>
+      <c r="R23" s="293"/>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="323"/>
-      <c r="B24" s="323"/>
-      <c r="C24" s="323"/>
-      <c r="D24" s="323"/>
-      <c r="E24" s="323"/>
-      <c r="F24" s="323"/>
-      <c r="G24" s="324" t="s">
+      <c r="A24" s="294"/>
+      <c r="B24" s="294"/>
+      <c r="C24" s="294"/>
+      <c r="D24" s="294"/>
+      <c r="E24" s="294"/>
+      <c r="F24" s="294"/>
+      <c r="G24" s="295" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="324"/>
-      <c r="I24" s="324"/>
-      <c r="J24" s="324"/>
-      <c r="K24" s="324"/>
-      <c r="L24" s="324"/>
-      <c r="M24" s="324"/>
-      <c r="N24" s="324"/>
-      <c r="O24" s="324"/>
-      <c r="P24" s="324"/>
-      <c r="Q24" s="324"/>
-      <c r="R24" s="325"/>
+      <c r="H24" s="295"/>
+      <c r="I24" s="295"/>
+      <c r="J24" s="295"/>
+      <c r="K24" s="295"/>
+      <c r="L24" s="295"/>
+      <c r="M24" s="295"/>
+      <c r="N24" s="295"/>
+      <c r="O24" s="295"/>
+      <c r="P24" s="295"/>
+      <c r="Q24" s="295"/>
+      <c r="R24" s="296"/>
     </row>
     <row r="25" spans="1:20" ht="15" customHeight="1">
-      <c r="A25" s="327" t="s">
+      <c r="A25" s="298" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="327"/>
-      <c r="C25" s="327"/>
-      <c r="D25" s="327"/>
-      <c r="E25" s="327"/>
-      <c r="F25" s="327"/>
-      <c r="G25" s="321" t="s">
+      <c r="B25" s="298"/>
+      <c r="C25" s="298"/>
+      <c r="D25" s="298"/>
+      <c r="E25" s="298"/>
+      <c r="F25" s="298"/>
+      <c r="G25" s="292" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="321"/>
-      <c r="I25" s="321"/>
-      <c r="J25" s="321"/>
-      <c r="K25" s="321"/>
-      <c r="L25" s="321"/>
-      <c r="M25" s="321"/>
-      <c r="N25" s="321"/>
-      <c r="O25" s="321"/>
-      <c r="P25" s="321"/>
-      <c r="Q25" s="321"/>
-      <c r="R25" s="322"/>
+      <c r="H25" s="292"/>
+      <c r="I25" s="292"/>
+      <c r="J25" s="292"/>
+      <c r="K25" s="292"/>
+      <c r="L25" s="292"/>
+      <c r="M25" s="292"/>
+      <c r="N25" s="292"/>
+      <c r="O25" s="292"/>
+      <c r="P25" s="292"/>
+      <c r="Q25" s="292"/>
+      <c r="R25" s="293"/>
     </row>
     <row r="26" spans="1:20" ht="15" customHeight="1">
-      <c r="A26" s="339" t="s">
+      <c r="A26" s="308" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="339"/>
-      <c r="C26" s="339"/>
-      <c r="D26" s="339"/>
-      <c r="E26" s="339"/>
-      <c r="F26" s="339"/>
-      <c r="G26" s="335" t="s">
+      <c r="B26" s="308"/>
+      <c r="C26" s="308"/>
+      <c r="D26" s="308"/>
+      <c r="E26" s="308"/>
+      <c r="F26" s="308"/>
+      <c r="G26" s="304" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="335"/>
-      <c r="I26" s="335"/>
-      <c r="J26" s="335"/>
-      <c r="K26" s="335"/>
-      <c r="L26" s="335"/>
-      <c r="M26" s="335"/>
-      <c r="N26" s="335"/>
-      <c r="O26" s="335"/>
-      <c r="P26" s="335"/>
-      <c r="Q26" s="335"/>
-      <c r="R26" s="336"/>
+      <c r="H26" s="304"/>
+      <c r="I26" s="304"/>
+      <c r="J26" s="304"/>
+      <c r="K26" s="304"/>
+      <c r="L26" s="304"/>
+      <c r="M26" s="304"/>
+      <c r="N26" s="304"/>
+      <c r="O26" s="304"/>
+      <c r="P26" s="304"/>
+      <c r="Q26" s="304"/>
+      <c r="R26" s="305"/>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1">
-      <c r="A27" s="339" t="s">
+      <c r="A27" s="308" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="339"/>
-      <c r="C27" s="339"/>
-      <c r="D27" s="339"/>
-      <c r="E27" s="339"/>
-      <c r="F27" s="339"/>
-      <c r="G27" s="337" t="s">
+      <c r="B27" s="308"/>
+      <c r="C27" s="308"/>
+      <c r="D27" s="308"/>
+      <c r="E27" s="308"/>
+      <c r="F27" s="308"/>
+      <c r="G27" s="306" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="337"/>
-      <c r="I27" s="337"/>
-      <c r="J27" s="337"/>
-      <c r="K27" s="337"/>
-      <c r="L27" s="337"/>
-      <c r="M27" s="337"/>
-      <c r="N27" s="337"/>
-      <c r="O27" s="337"/>
-      <c r="P27" s="337"/>
-      <c r="Q27" s="337"/>
-      <c r="R27" s="338"/>
+      <c r="H27" s="306"/>
+      <c r="I27" s="306"/>
+      <c r="J27" s="306"/>
+      <c r="K27" s="306"/>
+      <c r="L27" s="306"/>
+      <c r="M27" s="306"/>
+      <c r="N27" s="306"/>
+      <c r="O27" s="306"/>
+      <c r="P27" s="306"/>
+      <c r="Q27" s="306"/>
+      <c r="R27" s="307"/>
       <c r="S27" s="32"/>
       <c r="T27" s="32"/>
     </row>
     <row r="28" spans="1:20" ht="15" customHeight="1">
-      <c r="A28" s="339" t="s">
+      <c r="A28" s="308" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="339"/>
-      <c r="C28" s="339"/>
-      <c r="D28" s="339"/>
-      <c r="E28" s="339"/>
-      <c r="F28" s="339"/>
-      <c r="G28" s="322" t="s">
+      <c r="B28" s="308"/>
+      <c r="C28" s="308"/>
+      <c r="D28" s="308"/>
+      <c r="E28" s="308"/>
+      <c r="F28" s="308"/>
+      <c r="G28" s="293" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="322"/>
-      <c r="I28" s="322"/>
-      <c r="J28" s="322"/>
-      <c r="K28" s="322"/>
-      <c r="L28" s="322"/>
-      <c r="M28" s="322"/>
-      <c r="N28" s="322"/>
-      <c r="O28" s="322"/>
-      <c r="P28" s="322"/>
-      <c r="Q28" s="322"/>
-      <c r="R28" s="322"/>
+      <c r="H28" s="293"/>
+      <c r="I28" s="293"/>
+      <c r="J28" s="293"/>
+      <c r="K28" s="293"/>
+      <c r="L28" s="293"/>
+      <c r="M28" s="293"/>
+      <c r="N28" s="293"/>
+      <c r="O28" s="293"/>
+      <c r="P28" s="293"/>
+      <c r="Q28" s="293"/>
+      <c r="R28" s="293"/>
     </row>
     <row r="29" spans="1:20" ht="15" customHeight="1">
-      <c r="A29" s="339" t="s">
+      <c r="A29" s="308" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="339"/>
-      <c r="C29" s="339"/>
-      <c r="D29" s="339"/>
-      <c r="E29" s="339"/>
-      <c r="F29" s="339"/>
-      <c r="G29" s="322" t="s">
+      <c r="B29" s="308"/>
+      <c r="C29" s="308"/>
+      <c r="D29" s="308"/>
+      <c r="E29" s="308"/>
+      <c r="F29" s="308"/>
+      <c r="G29" s="293" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="322"/>
-      <c r="I29" s="322"/>
-      <c r="J29" s="322"/>
-      <c r="K29" s="322"/>
-      <c r="L29" s="322"/>
-      <c r="M29" s="322"/>
-      <c r="N29" s="322"/>
-      <c r="O29" s="322"/>
-      <c r="P29" s="322"/>
-      <c r="Q29" s="322"/>
-      <c r="R29" s="322"/>
+      <c r="H29" s="293"/>
+      <c r="I29" s="293"/>
+      <c r="J29" s="293"/>
+      <c r="K29" s="293"/>
+      <c r="L29" s="293"/>
+      <c r="M29" s="293"/>
+      <c r="N29" s="293"/>
+      <c r="O29" s="293"/>
+      <c r="P29" s="293"/>
+      <c r="Q29" s="293"/>
+      <c r="R29" s="293"/>
     </row>
     <row r="30" spans="1:20">
       <c r="F30" s="33"/>
@@ -7836,20 +7890,20 @@
     <row r="32" spans="1:20" ht="15" customHeight="1">
       <c r="A32" s="44"/>
       <c r="B32" s="44"/>
-      <c r="C32" s="343"/>
-      <c r="D32" s="343"/>
-      <c r="E32" s="343"/>
-      <c r="F32" s="341"/>
-      <c r="G32" s="341"/>
+      <c r="C32" s="312"/>
+      <c r="D32" s="312"/>
+      <c r="E32" s="312"/>
+      <c r="F32" s="310"/>
+      <c r="G32" s="310"/>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1">
       <c r="A33" s="44"/>
       <c r="B33" s="44"/>
-      <c r="C33" s="343"/>
-      <c r="D33" s="343"/>
-      <c r="E33" s="343"/>
-      <c r="F33" s="342"/>
-      <c r="G33" s="342"/>
+      <c r="C33" s="312"/>
+      <c r="D33" s="312"/>
+      <c r="E33" s="312"/>
+      <c r="F33" s="311"/>
+      <c r="G33" s="311"/>
     </row>
     <row r="34" spans="1:7">
       <c r="C34" s="97"/>
@@ -7859,40 +7913,40 @@
       <c r="G34" s="97"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1">
-      <c r="A35" s="346" t="s">
+      <c r="A35" s="314" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="346" t="str">
+      <c r="B35" s="314" t="str">
         <f>A21</f>
         <v>Part of the Farm</v>
       </c>
-      <c r="C35" s="347" t="s">
+      <c r="C35" s="315" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="347"/>
-      <c r="E35" s="347" t="str">
+      <c r="D35" s="315"/>
+      <c r="E35" s="315" t="str">
         <f>A14</f>
         <v>Location</v>
       </c>
-      <c r="F35" s="345" t="s">
+      <c r="F35" s="313" t="s">
         <v>33</v>
       </c>
       <c r="G35" s="165"/>
     </row>
     <row r="36" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A36" s="346"/>
-      <c r="B36" s="346"/>
-      <c r="C36" s="347"/>
-      <c r="D36" s="347"/>
-      <c r="E36" s="347"/>
-      <c r="F36" s="345"/>
+      <c r="A36" s="314"/>
+      <c r="B36" s="314"/>
+      <c r="C36" s="315"/>
+      <c r="D36" s="315"/>
+      <c r="E36" s="315"/>
+      <c r="F36" s="313"/>
       <c r="G36" s="165"/>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1">
-      <c r="A37" s="340" t="s">
+      <c r="A37" s="309" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="270" t="str">
+      <c r="B37" s="265" t="str">
         <f>A23</f>
         <v>Energy Supply system (Solar PV power plant,Solar Tracking)</v>
       </c>
@@ -7902,104 +7956,104 @@
       <c r="D37" s="162" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="344" t="s">
+      <c r="E37" s="392" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="277" t="s">
+      <c r="F37" s="369" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="269"/>
-      <c r="B38" s="271"/>
+      <c r="A38" s="280"/>
+      <c r="B38" s="266"/>
       <c r="C38" s="66" t="s">
         <v>36</v>
       </c>
       <c r="D38" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="305"/>
-      <c r="F38" s="277"/>
+      <c r="E38" s="393"/>
+      <c r="F38" s="369"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="269"/>
-      <c r="B39" s="271"/>
+      <c r="A39" s="280"/>
+      <c r="B39" s="266"/>
       <c r="C39" s="66" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="305"/>
-      <c r="F39" s="277"/>
+      <c r="E39" s="393"/>
+      <c r="F39" s="369"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="269"/>
-      <c r="B40" s="271"/>
-      <c r="C40" s="301" t="s">
+      <c r="A40" s="280"/>
+      <c r="B40" s="266"/>
+      <c r="C40" s="281" t="s">
         <v>40</v>
       </c>
       <c r="D40" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="305"/>
-      <c r="F40" s="277"/>
+      <c r="E40" s="393"/>
+      <c r="F40" s="369"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="269"/>
-      <c r="B41" s="271"/>
-      <c r="C41" s="302"/>
+      <c r="A41" s="280"/>
+      <c r="B41" s="266"/>
+      <c r="C41" s="282"/>
       <c r="D41" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="306"/>
-      <c r="F41" s="277"/>
+      <c r="E41" s="394"/>
+      <c r="F41" s="369"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="269"/>
-      <c r="B42" s="271"/>
-      <c r="C42" s="302"/>
+      <c r="A42" s="280"/>
+      <c r="B42" s="266"/>
+      <c r="C42" s="282"/>
       <c r="D42" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="306"/>
-      <c r="F42" s="277"/>
+      <c r="E42" s="394"/>
+      <c r="F42" s="369"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="269"/>
-      <c r="B43" s="271"/>
-      <c r="C43" s="302"/>
+      <c r="A43" s="280"/>
+      <c r="B43" s="266"/>
+      <c r="C43" s="282"/>
       <c r="D43" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="306"/>
-      <c r="F43" s="277"/>
+      <c r="E43" s="394"/>
+      <c r="F43" s="369"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="269"/>
-      <c r="B44" s="271"/>
-      <c r="C44" s="302"/>
+      <c r="A44" s="280"/>
+      <c r="B44" s="266"/>
+      <c r="C44" s="282"/>
       <c r="D44" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="306"/>
-      <c r="F44" s="277"/>
+      <c r="E44" s="394"/>
+      <c r="F44" s="369"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="269"/>
-      <c r="B45" s="271"/>
+      <c r="A45" s="280"/>
+      <c r="B45" s="266"/>
       <c r="C45" s="85" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="305"/>
-      <c r="F45" s="278"/>
+      <c r="E45" s="393"/>
+      <c r="F45" s="370"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="269"/>
-      <c r="B46" s="282" t="str">
+      <c r="A46" s="280"/>
+      <c r="B46" s="268" t="str">
         <f>A25</f>
         <v>Irrigation system</v>
       </c>
@@ -8009,80 +8063,80 @@
       <c r="D46" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="305"/>
-      <c r="F46" s="283"/>
+      <c r="E46" s="393"/>
+      <c r="F46" s="371"/>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1">
-      <c r="A47" s="269"/>
-      <c r="B47" s="282"/>
+      <c r="A47" s="280"/>
+      <c r="B47" s="268"/>
       <c r="C47" s="66" t="s">
         <v>36</v>
       </c>
       <c r="D47" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="E47" s="305"/>
-      <c r="F47" s="284"/>
+      <c r="E47" s="393"/>
+      <c r="F47" s="372"/>
     </row>
     <row r="48" spans="1:7" ht="15" customHeight="1">
-      <c r="A48" s="269"/>
-      <c r="B48" s="282"/>
+      <c r="A48" s="280"/>
+      <c r="B48" s="268"/>
       <c r="C48" s="85" t="s">
         <v>38</v>
       </c>
       <c r="D48" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="E48" s="305"/>
-      <c r="F48" s="284"/>
+      <c r="E48" s="393"/>
+      <c r="F48" s="372"/>
     </row>
     <row r="49" spans="1:6" ht="15" customHeight="1">
-      <c r="A49" s="269"/>
-      <c r="B49" s="282"/>
-      <c r="C49" s="286" t="s">
+      <c r="A49" s="280"/>
+      <c r="B49" s="268"/>
+      <c r="C49" s="269" t="s">
         <v>40</v>
       </c>
       <c r="D49" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="E49" s="305"/>
-      <c r="F49" s="284"/>
+      <c r="E49" s="393"/>
+      <c r="F49" s="372"/>
     </row>
     <row r="50" spans="1:6" ht="15" customHeight="1">
-      <c r="A50" s="269"/>
-      <c r="B50" s="282"/>
-      <c r="C50" s="287"/>
+      <c r="A50" s="280"/>
+      <c r="B50" s="268"/>
+      <c r="C50" s="270"/>
       <c r="D50" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="E50" s="305"/>
-      <c r="F50" s="284"/>
+      <c r="E50" s="393"/>
+      <c r="F50" s="372"/>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1">
-      <c r="A51" s="269"/>
-      <c r="B51" s="282"/>
-      <c r="C51" s="288"/>
+      <c r="A51" s="280"/>
+      <c r="B51" s="268"/>
+      <c r="C51" s="271"/>
       <c r="D51" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="E51" s="305"/>
-      <c r="F51" s="284"/>
+      <c r="E51" s="393"/>
+      <c r="F51" s="372"/>
     </row>
     <row r="52" spans="1:6" ht="15" customHeight="1">
-      <c r="A52" s="269"/>
-      <c r="B52" s="282"/>
+      <c r="A52" s="280"/>
+      <c r="B52" s="268"/>
       <c r="C52" s="86" t="s">
         <v>46</v>
       </c>
       <c r="D52" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="305"/>
-      <c r="F52" s="285"/>
+      <c r="E52" s="393"/>
+      <c r="F52" s="373"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="269"/>
-      <c r="B53" s="289" t="str">
+      <c r="A53" s="280"/>
+      <c r="B53" s="272" t="str">
         <f t="shared" ref="B53" si="0">A26</f>
         <v>Crop Storage (Smart Dryer)</v>
       </c>
@@ -8092,62 +8146,62 @@
       <c r="D53" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="305"/>
-      <c r="F53" s="313" t="s">
+      <c r="E53" s="393"/>
+      <c r="F53" s="374" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="269"/>
-      <c r="B54" s="290"/>
+      <c r="A54" s="280"/>
+      <c r="B54" s="273"/>
       <c r="C54" s="104" t="s">
         <v>36</v>
       </c>
       <c r="D54" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="E54" s="305"/>
-      <c r="F54" s="314"/>
+      <c r="E54" s="393"/>
+      <c r="F54" s="375"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="269"/>
-      <c r="B55" s="290"/>
+      <c r="A55" s="280"/>
+      <c r="B55" s="273"/>
       <c r="C55" s="104" t="s">
         <v>38</v>
       </c>
       <c r="D55" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="E55" s="305"/>
-      <c r="F55" s="314"/>
+      <c r="E55" s="393"/>
+      <c r="F55" s="375"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="269"/>
-      <c r="B56" s="290"/>
+      <c r="A56" s="280"/>
+      <c r="B56" s="273"/>
       <c r="C56" s="104" t="s">
         <v>40</v>
       </c>
       <c r="D56" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="305"/>
-      <c r="F56" s="314"/>
+      <c r="E56" s="393"/>
+      <c r="F56" s="375"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="269"/>
-      <c r="B57" s="291"/>
+      <c r="A57" s="280"/>
+      <c r="B57" s="274"/>
       <c r="C57" s="105" t="s">
         <v>46</v>
       </c>
       <c r="D57" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="305"/>
-      <c r="F57" s="315"/>
+      <c r="E57" s="393"/>
+      <c r="F57" s="376"/>
     </row>
     <row r="58" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A58" s="269"/>
-      <c r="B58" s="270" t="str">
+      <c r="A58" s="280"/>
+      <c r="B58" s="265" t="str">
         <f>A27</f>
         <v>Fencing and Security (Face Recognition)</v>
       </c>
@@ -8157,62 +8211,62 @@
       <c r="D58" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="305"/>
-      <c r="F58" s="276" t="s">
+      <c r="E58" s="393"/>
+      <c r="F58" s="377" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" customHeight="1">
-      <c r="A59" s="269"/>
-      <c r="B59" s="271"/>
+      <c r="A59" s="280"/>
+      <c r="B59" s="266"/>
       <c r="C59" s="66" t="s">
         <v>36</v>
       </c>
       <c r="D59" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="E59" s="305"/>
-      <c r="F59" s="277"/>
+      <c r="E59" s="393"/>
+      <c r="F59" s="369"/>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1">
-      <c r="A60" s="269"/>
-      <c r="B60" s="271"/>
+      <c r="A60" s="280"/>
+      <c r="B60" s="266"/>
       <c r="C60" s="66" t="s">
         <v>38</v>
       </c>
       <c r="D60" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="E60" s="305"/>
-      <c r="F60" s="277"/>
+      <c r="E60" s="393"/>
+      <c r="F60" s="369"/>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1">
-      <c r="A61" s="269"/>
-      <c r="B61" s="271"/>
+      <c r="A61" s="280"/>
+      <c r="B61" s="266"/>
       <c r="C61" s="66" t="s">
         <v>40</v>
       </c>
       <c r="D61" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="E61" s="305"/>
-      <c r="F61" s="277"/>
+      <c r="E61" s="393"/>
+      <c r="F61" s="369"/>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1">
-      <c r="A62" s="269"/>
-      <c r="B62" s="271"/>
+      <c r="A62" s="280"/>
+      <c r="B62" s="266"/>
       <c r="C62" s="85" t="s">
         <v>46</v>
       </c>
       <c r="D62" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="E62" s="305"/>
-      <c r="F62" s="278"/>
+      <c r="E62" s="393"/>
+      <c r="F62" s="370"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="269"/>
-      <c r="B63" s="289" t="str">
+      <c r="A63" s="280"/>
+      <c r="B63" s="272" t="str">
         <f>A28</f>
         <v>Visitors Management (No Reesa)</v>
       </c>
@@ -8222,62 +8276,62 @@
       <c r="D63" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="305"/>
-      <c r="F63" s="297" t="s">
+      <c r="E63" s="393"/>
+      <c r="F63" s="378" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="269"/>
-      <c r="B64" s="289"/>
+      <c r="A64" s="280"/>
+      <c r="B64" s="272"/>
       <c r="C64" s="169" t="s">
         <v>36</v>
       </c>
       <c r="D64" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="E64" s="305"/>
-      <c r="F64" s="277"/>
+      <c r="E64" s="393"/>
+      <c r="F64" s="369"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="269"/>
-      <c r="B65" s="289"/>
+      <c r="A65" s="280"/>
+      <c r="B65" s="272"/>
       <c r="C65" s="169" t="s">
         <v>38</v>
       </c>
       <c r="D65" s="164" t="s">
         <v>58</v>
       </c>
-      <c r="E65" s="305"/>
-      <c r="F65" s="277"/>
+      <c r="E65" s="393"/>
+      <c r="F65" s="369"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="269"/>
-      <c r="B66" s="289"/>
+      <c r="A66" s="280"/>
+      <c r="B66" s="272"/>
       <c r="C66" s="169" t="s">
         <v>40</v>
       </c>
       <c r="D66" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="E66" s="305"/>
-      <c r="F66" s="277"/>
+      <c r="E66" s="393"/>
+      <c r="F66" s="369"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="269"/>
-      <c r="B67" s="303"/>
+      <c r="A67" s="280"/>
+      <c r="B67" s="283"/>
       <c r="C67" s="170" t="s">
         <v>46</v>
       </c>
       <c r="D67" s="172" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="305"/>
-      <c r="F67" s="278"/>
+      <c r="E67" s="393"/>
+      <c r="F67" s="370"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="269"/>
-      <c r="B68" s="304" t="str">
+      <c r="A68" s="280"/>
+      <c r="B68" s="284" t="str">
         <f>A29</f>
         <v>Product Transformation System (Ball mill grinder)</v>
       </c>
@@ -8287,94 +8341,94 @@
       <c r="D68" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="305"/>
-      <c r="F68" s="297" t="s">
+      <c r="E68" s="393"/>
+      <c r="F68" s="378" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="269"/>
-      <c r="B69" s="295"/>
+      <c r="A69" s="280"/>
+      <c r="B69" s="275"/>
       <c r="C69" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D69" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="E69" s="305"/>
-      <c r="F69" s="277"/>
+      <c r="E69" s="393"/>
+      <c r="F69" s="369"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="269"/>
-      <c r="B70" s="295"/>
+      <c r="A70" s="280"/>
+      <c r="B70" s="275"/>
       <c r="C70" s="90" t="s">
         <v>38</v>
       </c>
       <c r="D70" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="E70" s="305"/>
-      <c r="F70" s="277"/>
+      <c r="E70" s="393"/>
+      <c r="F70" s="369"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="269"/>
-      <c r="B71" s="295"/>
-      <c r="C71" s="298" t="s">
+      <c r="A71" s="280"/>
+      <c r="B71" s="275"/>
+      <c r="C71" s="277" t="s">
         <v>40</v>
       </c>
       <c r="D71" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="E71" s="305"/>
-      <c r="F71" s="277"/>
+      <c r="E71" s="393"/>
+      <c r="F71" s="369"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="269"/>
-      <c r="B72" s="295"/>
-      <c r="C72" s="299"/>
+      <c r="A72" s="280"/>
+      <c r="B72" s="275"/>
+      <c r="C72" s="278"/>
       <c r="D72" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="E72" s="305"/>
-      <c r="F72" s="277"/>
+      <c r="E72" s="393"/>
+      <c r="F72" s="369"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="269"/>
-      <c r="B73" s="295"/>
-      <c r="C73" s="299"/>
+      <c r="A73" s="280"/>
+      <c r="B73" s="275"/>
+      <c r="C73" s="278"/>
       <c r="D73" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E73" s="305"/>
-      <c r="F73" s="277"/>
+      <c r="E73" s="393"/>
+      <c r="F73" s="369"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="269"/>
-      <c r="B74" s="295"/>
-      <c r="C74" s="300"/>
+      <c r="A74" s="280"/>
+      <c r="B74" s="275"/>
+      <c r="C74" s="279"/>
       <c r="D74" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="E74" s="305"/>
-      <c r="F74" s="277"/>
+      <c r="E74" s="393"/>
+      <c r="F74" s="369"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="269"/>
-      <c r="B75" s="295"/>
+      <c r="A75" s="280"/>
+      <c r="B75" s="275"/>
       <c r="C75" s="95" t="s">
         <v>46</v>
       </c>
       <c r="D75" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="E75" s="305"/>
-      <c r="F75" s="278"/>
+      <c r="E75" s="395"/>
+      <c r="F75" s="370"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="269" t="s">
+      <c r="A76" s="280" t="s">
         <v>65</v>
       </c>
-      <c r="B76" s="295" t="s">
+      <c r="B76" s="275" t="s">
         <v>18</v>
       </c>
       <c r="C76" s="88" t="s">
@@ -8384,104 +8438,104 @@
         <f>9450000+72000000</f>
         <v>81450000</v>
       </c>
-      <c r="E76" s="305" t="s">
+      <c r="E76" s="388" t="s">
         <v>10</v>
       </c>
-      <c r="F76" s="276">
+      <c r="F76" s="377">
         <v>2500</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="269"/>
-      <c r="B77" s="295"/>
+      <c r="A77" s="280"/>
+      <c r="B77" s="275"/>
       <c r="C77" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D77" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="E77" s="305"/>
-      <c r="F77" s="277"/>
+      <c r="E77" s="389"/>
+      <c r="F77" s="369"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="269"/>
-      <c r="B78" s="295"/>
+      <c r="A78" s="280"/>
+      <c r="B78" s="275"/>
       <c r="C78" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D78" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="E78" s="305"/>
-      <c r="F78" s="277"/>
+      <c r="E78" s="389"/>
+      <c r="F78" s="369"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="269"/>
-      <c r="B79" s="295"/>
-      <c r="C79" s="308" t="s">
+      <c r="A79" s="280"/>
+      <c r="B79" s="275"/>
+      <c r="C79" s="285" t="s">
         <v>40</v>
       </c>
       <c r="D79" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="E79" s="305"/>
-      <c r="F79" s="277"/>
+      <c r="E79" s="389"/>
+      <c r="F79" s="369"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="269"/>
-      <c r="B80" s="295"/>
-      <c r="C80" s="309"/>
+      <c r="A80" s="280"/>
+      <c r="B80" s="275"/>
+      <c r="C80" s="286"/>
       <c r="D80" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E80" s="306"/>
-      <c r="F80" s="277"/>
+      <c r="E80" s="390"/>
+      <c r="F80" s="369"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="269"/>
-      <c r="B81" s="295"/>
-      <c r="C81" s="309"/>
+      <c r="A81" s="280"/>
+      <c r="B81" s="275"/>
+      <c r="C81" s="286"/>
       <c r="D81" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="E81" s="306"/>
-      <c r="F81" s="277"/>
+      <c r="E81" s="390"/>
+      <c r="F81" s="369"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="269"/>
-      <c r="B82" s="295"/>
-      <c r="C82" s="309"/>
+      <c r="A82" s="280"/>
+      <c r="B82" s="275"/>
+      <c r="C82" s="286"/>
       <c r="D82" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="E82" s="306"/>
-      <c r="F82" s="277"/>
+      <c r="E82" s="390"/>
+      <c r="F82" s="369"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="269"/>
-      <c r="B83" s="295"/>
-      <c r="C83" s="309"/>
+      <c r="A83" s="280"/>
+      <c r="B83" s="275"/>
+      <c r="C83" s="286"/>
       <c r="D83" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E83" s="306"/>
-      <c r="F83" s="277"/>
+      <c r="E83" s="390"/>
+      <c r="F83" s="369"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="269"/>
-      <c r="B84" s="296"/>
+      <c r="A84" s="280"/>
+      <c r="B84" s="276"/>
       <c r="C84" s="90" t="s">
         <v>46</v>
       </c>
       <c r="D84" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="E84" s="305"/>
-      <c r="F84" s="278"/>
+      <c r="E84" s="389"/>
+      <c r="F84" s="370"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="269"/>
-      <c r="B85" s="290" t="s">
+      <c r="A85" s="280"/>
+      <c r="B85" s="273" t="s">
         <v>21</v>
       </c>
       <c r="C85" s="88" t="s">
@@ -8490,80 +8544,80 @@
       <c r="D85" s="167">
         <v>1035827</v>
       </c>
-      <c r="E85" s="305"/>
-      <c r="F85" s="283"/>
+      <c r="E85" s="389"/>
+      <c r="F85" s="371"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="269"/>
-      <c r="B86" s="289"/>
+      <c r="A86" s="280"/>
+      <c r="B86" s="272"/>
       <c r="C86" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D86" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="E86" s="305"/>
-      <c r="F86" s="284"/>
+      <c r="E86" s="389"/>
+      <c r="F86" s="372"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="269"/>
-      <c r="B87" s="289"/>
+      <c r="A87" s="280"/>
+      <c r="B87" s="272"/>
       <c r="C87" s="90" t="s">
         <v>38</v>
       </c>
       <c r="D87" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="E87" s="305"/>
-      <c r="F87" s="284"/>
+      <c r="E87" s="389"/>
+      <c r="F87" s="372"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="269"/>
-      <c r="B88" s="289"/>
-      <c r="C88" s="310" t="s">
+      <c r="A88" s="280"/>
+      <c r="B88" s="272"/>
+      <c r="C88" s="287" t="s">
         <v>40</v>
       </c>
       <c r="D88" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="E88" s="305"/>
-      <c r="F88" s="284"/>
+      <c r="E88" s="389"/>
+      <c r="F88" s="372"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="269"/>
-      <c r="B89" s="289"/>
-      <c r="C89" s="311"/>
+      <c r="A89" s="280"/>
+      <c r="B89" s="272"/>
+      <c r="C89" s="288"/>
       <c r="D89" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="E89" s="305"/>
-      <c r="F89" s="284"/>
+      <c r="E89" s="389"/>
+      <c r="F89" s="372"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="269"/>
-      <c r="B90" s="289"/>
-      <c r="C90" s="312"/>
+      <c r="A90" s="280"/>
+      <c r="B90" s="272"/>
+      <c r="C90" s="289"/>
       <c r="D90" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="E90" s="305"/>
-      <c r="F90" s="284"/>
+      <c r="E90" s="389"/>
+      <c r="F90" s="372"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="269"/>
-      <c r="B91" s="303"/>
+      <c r="A91" s="280"/>
+      <c r="B91" s="283"/>
       <c r="C91" s="95" t="s">
         <v>46</v>
       </c>
       <c r="D91" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="E91" s="305"/>
-      <c r="F91" s="285"/>
+      <c r="E91" s="389"/>
+      <c r="F91" s="373"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="269"/>
-      <c r="B92" s="290" t="s">
+      <c r="A92" s="280"/>
+      <c r="B92" s="273" t="s">
         <v>23</v>
       </c>
       <c r="C92" s="103" t="s">
@@ -8572,62 +8626,62 @@
       <c r="D92" s="178">
         <v>5000000</v>
       </c>
-      <c r="E92" s="305"/>
-      <c r="F92" s="313" t="s">
+      <c r="E92" s="389"/>
+      <c r="F92" s="374" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="269"/>
-      <c r="B93" s="290"/>
+      <c r="A93" s="280"/>
+      <c r="B93" s="273"/>
       <c r="C93" s="104" t="s">
         <v>36</v>
       </c>
       <c r="D93" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="E93" s="305"/>
-      <c r="F93" s="314"/>
+      <c r="E93" s="389"/>
+      <c r="F93" s="375"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="269"/>
-      <c r="B94" s="290"/>
+      <c r="A94" s="280"/>
+      <c r="B94" s="273"/>
       <c r="C94" s="104" t="s">
         <v>38</v>
       </c>
       <c r="D94" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="E94" s="305"/>
-      <c r="F94" s="314"/>
+      <c r="E94" s="389"/>
+      <c r="F94" s="375"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="269"/>
-      <c r="B95" s="290"/>
+      <c r="A95" s="280"/>
+      <c r="B95" s="273"/>
       <c r="C95" s="104" t="s">
         <v>40</v>
       </c>
       <c r="D95" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="E95" s="305"/>
-      <c r="F95" s="314"/>
+      <c r="E95" s="389"/>
+      <c r="F95" s="375"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="269"/>
-      <c r="B96" s="290"/>
+      <c r="A96" s="280"/>
+      <c r="B96" s="273"/>
       <c r="C96" s="105" t="s">
         <v>46</v>
       </c>
       <c r="D96" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="E96" s="305"/>
-      <c r="F96" s="315"/>
+      <c r="E96" s="389"/>
+      <c r="F96" s="376"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="269"/>
-      <c r="B97" s="295" t="s">
+      <c r="A97" s="280"/>
+      <c r="B97" s="275" t="s">
         <v>25</v>
       </c>
       <c r="C97" s="88" t="s">
@@ -8636,62 +8690,62 @@
       <c r="D97" s="167">
         <v>15000000</v>
       </c>
-      <c r="E97" s="305"/>
-      <c r="F97" s="276" t="s">
+      <c r="E97" s="389"/>
+      <c r="F97" s="377" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="269"/>
-      <c r="B98" s="295"/>
+      <c r="A98" s="280"/>
+      <c r="B98" s="275"/>
       <c r="C98" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D98" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="E98" s="305"/>
-      <c r="F98" s="277"/>
+      <c r="E98" s="389"/>
+      <c r="F98" s="369"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="269"/>
-      <c r="B99" s="295"/>
+      <c r="A99" s="280"/>
+      <c r="B99" s="275"/>
       <c r="C99" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D99" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="E99" s="305"/>
-      <c r="F99" s="277"/>
+      <c r="E99" s="389"/>
+      <c r="F99" s="369"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="269"/>
-      <c r="B100" s="295"/>
+      <c r="A100" s="280"/>
+      <c r="B100" s="275"/>
       <c r="C100" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D100" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="E100" s="305"/>
-      <c r="F100" s="277"/>
+      <c r="E100" s="389"/>
+      <c r="F100" s="369"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="269"/>
-      <c r="B101" s="296"/>
+      <c r="A101" s="280"/>
+      <c r="B101" s="276"/>
       <c r="C101" s="89" t="s">
         <v>46</v>
       </c>
       <c r="D101" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="305"/>
-      <c r="F101" s="278"/>
+      <c r="E101" s="389"/>
+      <c r="F101" s="370"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="269"/>
-      <c r="B102" s="290" t="s">
+      <c r="A102" s="280"/>
+      <c r="B102" s="273" t="s">
         <v>27</v>
       </c>
       <c r="C102" s="88" t="s">
@@ -8700,62 +8754,62 @@
       <c r="D102" s="167">
         <v>30000000</v>
       </c>
-      <c r="E102" s="305"/>
-      <c r="F102" s="297" t="s">
+      <c r="E102" s="389"/>
+      <c r="F102" s="378" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="269"/>
-      <c r="B103" s="289"/>
+      <c r="A103" s="280"/>
+      <c r="B103" s="272"/>
       <c r="C103" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D103" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="E103" s="305"/>
-      <c r="F103" s="277"/>
+      <c r="E103" s="389"/>
+      <c r="F103" s="369"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="269"/>
-      <c r="B104" s="289"/>
+      <c r="A104" s="280"/>
+      <c r="B104" s="272"/>
       <c r="C104" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D104" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="E104" s="305"/>
-      <c r="F104" s="277"/>
+      <c r="E104" s="389"/>
+      <c r="F104" s="369"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="269"/>
-      <c r="B105" s="289"/>
+      <c r="A105" s="280"/>
+      <c r="B105" s="272"/>
       <c r="C105" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D105" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="E105" s="305"/>
-      <c r="F105" s="277"/>
+      <c r="E105" s="389"/>
+      <c r="F105" s="369"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="269"/>
-      <c r="B106" s="289"/>
+      <c r="A106" s="280"/>
+      <c r="B106" s="272"/>
       <c r="C106" s="89" t="s">
         <v>46</v>
       </c>
       <c r="D106" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="E106" s="305"/>
-      <c r="F106" s="278"/>
+      <c r="E106" s="389"/>
+      <c r="F106" s="370"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="269"/>
-      <c r="B107" s="295" t="s">
+      <c r="A107" s="280"/>
+      <c r="B107" s="275" t="s">
         <v>29</v>
       </c>
       <c r="C107" s="88" t="s">
@@ -8764,94 +8818,94 @@
       <c r="D107" s="167">
         <v>2000000</v>
       </c>
-      <c r="E107" s="305"/>
-      <c r="F107" s="297" t="s">
+      <c r="E107" s="389"/>
+      <c r="F107" s="378" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="269"/>
-      <c r="B108" s="295"/>
+      <c r="A108" s="280"/>
+      <c r="B108" s="275"/>
       <c r="C108" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D108" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="E108" s="305"/>
-      <c r="F108" s="277"/>
+      <c r="E108" s="389"/>
+      <c r="F108" s="369"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="269"/>
-      <c r="B109" s="295"/>
+      <c r="A109" s="280"/>
+      <c r="B109" s="275"/>
       <c r="C109" s="90" t="s">
         <v>38</v>
       </c>
       <c r="D109" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="E109" s="305"/>
-      <c r="F109" s="277"/>
+      <c r="E109" s="389"/>
+      <c r="F109" s="369"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="269"/>
-      <c r="B110" s="295"/>
-      <c r="C110" s="298" t="s">
+      <c r="A110" s="280"/>
+      <c r="B110" s="275"/>
+      <c r="C110" s="277" t="s">
         <v>40</v>
       </c>
       <c r="D110" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="E110" s="305"/>
-      <c r="F110" s="277"/>
+      <c r="E110" s="389"/>
+      <c r="F110" s="369"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="269"/>
-      <c r="B111" s="295"/>
-      <c r="C111" s="299"/>
+      <c r="A111" s="280"/>
+      <c r="B111" s="275"/>
+      <c r="C111" s="278"/>
       <c r="D111" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="E111" s="305"/>
-      <c r="F111" s="277"/>
+      <c r="E111" s="389"/>
+      <c r="F111" s="369"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="269"/>
-      <c r="B112" s="295"/>
-      <c r="C112" s="299"/>
+      <c r="A112" s="280"/>
+      <c r="B112" s="275"/>
+      <c r="C112" s="278"/>
       <c r="D112" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E112" s="305"/>
-      <c r="F112" s="277"/>
+      <c r="E112" s="389"/>
+      <c r="F112" s="369"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="269"/>
-      <c r="B113" s="295"/>
-      <c r="C113" s="300"/>
+      <c r="A113" s="280"/>
+      <c r="B113" s="275"/>
+      <c r="C113" s="279"/>
       <c r="D113" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="E113" s="305"/>
-      <c r="F113" s="277"/>
+      <c r="E113" s="389"/>
+      <c r="F113" s="369"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="269"/>
-      <c r="B114" s="296"/>
+      <c r="A114" s="280"/>
+      <c r="B114" s="276"/>
       <c r="C114" s="95" t="s">
         <v>46</v>
       </c>
       <c r="D114" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="E114" s="307"/>
-      <c r="F114" s="278"/>
+      <c r="E114" s="391"/>
+      <c r="F114" s="370"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="269" t="s">
+      <c r="A115" s="280" t="s">
         <v>5</v>
       </c>
-      <c r="B115" s="270" t="s">
+      <c r="B115" s="265" t="s">
         <v>18</v>
       </c>
       <c r="C115" s="72" t="s">
@@ -8861,104 +8915,104 @@
         <f>9450000+9450000*0.3 + 87600000</f>
         <v>99885000</v>
       </c>
-      <c r="E115" s="273" t="s">
+      <c r="E115" s="385" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="276">
+      <c r="F115" s="377">
         <v>3000</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="269"/>
-      <c r="B116" s="271"/>
+      <c r="A116" s="280"/>
+      <c r="B116" s="266"/>
       <c r="C116" s="66" t="s">
         <v>36</v>
       </c>
       <c r="D116" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="E116" s="274"/>
-      <c r="F116" s="277"/>
+      <c r="E116" s="386"/>
+      <c r="F116" s="369"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="269"/>
-      <c r="B117" s="271"/>
+      <c r="A117" s="280"/>
+      <c r="B117" s="266"/>
       <c r="C117" s="66" t="s">
         <v>38</v>
       </c>
       <c r="D117" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="E117" s="274"/>
-      <c r="F117" s="277"/>
+      <c r="E117" s="386"/>
+      <c r="F117" s="369"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="269"/>
-      <c r="B118" s="271"/>
-      <c r="C118" s="301" t="s">
+      <c r="A118" s="280"/>
+      <c r="B118" s="266"/>
+      <c r="C118" s="281" t="s">
         <v>40</v>
       </c>
       <c r="D118" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="E118" s="274"/>
-      <c r="F118" s="277"/>
+      <c r="E118" s="386"/>
+      <c r="F118" s="369"/>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="269"/>
-      <c r="B119" s="271"/>
-      <c r="C119" s="302"/>
+      <c r="A119" s="280"/>
+      <c r="B119" s="266"/>
+      <c r="C119" s="282"/>
       <c r="D119" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="E119" s="274"/>
-      <c r="F119" s="277"/>
+      <c r="E119" s="386"/>
+      <c r="F119" s="369"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="269"/>
-      <c r="B120" s="271"/>
-      <c r="C120" s="302"/>
+      <c r="A120" s="280"/>
+      <c r="B120" s="266"/>
+      <c r="C120" s="282"/>
       <c r="D120" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="E120" s="274"/>
-      <c r="F120" s="277"/>
+      <c r="E120" s="386"/>
+      <c r="F120" s="369"/>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="269"/>
-      <c r="B121" s="271"/>
-      <c r="C121" s="302"/>
+      <c r="A121" s="280"/>
+      <c r="B121" s="266"/>
+      <c r="C121" s="282"/>
       <c r="D121" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="E121" s="274"/>
-      <c r="F121" s="277"/>
+      <c r="E121" s="386"/>
+      <c r="F121" s="369"/>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="269"/>
-      <c r="B122" s="271"/>
-      <c r="C122" s="302"/>
+      <c r="A122" s="280"/>
+      <c r="B122" s="266"/>
+      <c r="C122" s="282"/>
       <c r="D122" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="E122" s="274"/>
-      <c r="F122" s="277"/>
+      <c r="E122" s="386"/>
+      <c r="F122" s="369"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="269"/>
-      <c r="B123" s="271"/>
+      <c r="A123" s="280"/>
+      <c r="B123" s="266"/>
       <c r="C123" s="85" t="s">
         <v>46</v>
       </c>
       <c r="D123" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="E123" s="274"/>
-      <c r="F123" s="278"/>
+      <c r="E123" s="386"/>
+      <c r="F123" s="370"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="269"/>
-      <c r="B124" s="282" t="s">
+      <c r="A124" s="280"/>
+      <c r="B124" s="268" t="s">
         <v>21</v>
       </c>
       <c r="C124" s="72" t="s">
@@ -8967,80 +9021,80 @@
       <c r="D124" s="167">
         <v>1946099</v>
       </c>
-      <c r="E124" s="274"/>
-      <c r="F124" s="283"/>
+      <c r="E124" s="386"/>
+      <c r="F124" s="371"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="269"/>
-      <c r="B125" s="282"/>
+      <c r="A125" s="280"/>
+      <c r="B125" s="268"/>
       <c r="C125" s="66" t="s">
         <v>36</v>
       </c>
       <c r="D125" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="E125" s="274"/>
-      <c r="F125" s="284"/>
+      <c r="E125" s="386"/>
+      <c r="F125" s="372"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="269"/>
-      <c r="B126" s="282"/>
+      <c r="A126" s="280"/>
+      <c r="B126" s="268"/>
       <c r="C126" s="85" t="s">
         <v>38</v>
       </c>
       <c r="D126" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="E126" s="274"/>
-      <c r="F126" s="284"/>
+      <c r="E126" s="386"/>
+      <c r="F126" s="372"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="269"/>
-      <c r="B127" s="282"/>
-      <c r="C127" s="286" t="s">
+      <c r="A127" s="280"/>
+      <c r="B127" s="268"/>
+      <c r="C127" s="269" t="s">
         <v>40</v>
       </c>
       <c r="D127" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="E127" s="274"/>
-      <c r="F127" s="284"/>
+      <c r="E127" s="386"/>
+      <c r="F127" s="372"/>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="269"/>
-      <c r="B128" s="282"/>
-      <c r="C128" s="287"/>
+      <c r="A128" s="280"/>
+      <c r="B128" s="268"/>
+      <c r="C128" s="270"/>
       <c r="D128" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="E128" s="274"/>
-      <c r="F128" s="284"/>
+      <c r="E128" s="386"/>
+      <c r="F128" s="372"/>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="269"/>
-      <c r="B129" s="282"/>
-      <c r="C129" s="288"/>
+      <c r="A129" s="280"/>
+      <c r="B129" s="268"/>
+      <c r="C129" s="271"/>
       <c r="D129" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="E129" s="274"/>
-      <c r="F129" s="284"/>
+      <c r="E129" s="386"/>
+      <c r="F129" s="372"/>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="269"/>
-      <c r="B130" s="282"/>
+      <c r="A130" s="280"/>
+      <c r="B130" s="268"/>
       <c r="C130" s="86" t="s">
         <v>46</v>
       </c>
       <c r="D130" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="E130" s="274"/>
-      <c r="F130" s="285"/>
+      <c r="E130" s="386"/>
+      <c r="F130" s="373"/>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="269"/>
-      <c r="B131" s="289" t="s">
+      <c r="A131" s="280"/>
+      <c r="B131" s="272" t="s">
         <v>23</v>
       </c>
       <c r="C131" s="103" t="s">
@@ -9049,62 +9103,62 @@
       <c r="D131" s="178">
         <v>5000000</v>
       </c>
-      <c r="E131" s="274"/>
-      <c r="F131" s="292" t="s">
+      <c r="E131" s="386"/>
+      <c r="F131" s="379" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="269"/>
-      <c r="B132" s="290"/>
+      <c r="A132" s="280"/>
+      <c r="B132" s="273"/>
       <c r="C132" s="104" t="s">
         <v>36</v>
       </c>
       <c r="D132" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="E132" s="274"/>
-      <c r="F132" s="293"/>
+      <c r="E132" s="386"/>
+      <c r="F132" s="380"/>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="269"/>
-      <c r="B133" s="290"/>
+      <c r="A133" s="280"/>
+      <c r="B133" s="273"/>
       <c r="C133" s="104" t="s">
         <v>38</v>
       </c>
       <c r="D133" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="E133" s="274"/>
-      <c r="F133" s="293"/>
+      <c r="E133" s="386"/>
+      <c r="F133" s="380"/>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="269"/>
-      <c r="B134" s="290"/>
+      <c r="A134" s="280"/>
+      <c r="B134" s="273"/>
       <c r="C134" s="104" t="s">
         <v>40</v>
       </c>
       <c r="D134" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="E134" s="274"/>
-      <c r="F134" s="293"/>
+      <c r="E134" s="386"/>
+      <c r="F134" s="380"/>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="269"/>
-      <c r="B135" s="290"/>
+      <c r="A135" s="280"/>
+      <c r="B135" s="273"/>
       <c r="C135" s="105" t="s">
         <v>46</v>
       </c>
       <c r="D135" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="E135" s="274"/>
-      <c r="F135" s="294"/>
+      <c r="E135" s="386"/>
+      <c r="F135" s="381"/>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="269"/>
-      <c r="B136" s="295" t="s">
+      <c r="A136" s="280"/>
+      <c r="B136" s="275" t="s">
         <v>25</v>
       </c>
       <c r="C136" s="88" t="s">
@@ -9113,62 +9167,62 @@
       <c r="D136" s="167">
         <v>20000000</v>
       </c>
-      <c r="E136" s="274"/>
-      <c r="F136" s="276" t="s">
+      <c r="E136" s="386"/>
+      <c r="F136" s="377" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="269"/>
-      <c r="B137" s="295"/>
+      <c r="A137" s="280"/>
+      <c r="B137" s="275"/>
       <c r="C137" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D137" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="E137" s="274"/>
-      <c r="F137" s="277"/>
+      <c r="E137" s="386"/>
+      <c r="F137" s="369"/>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="269"/>
-      <c r="B138" s="295"/>
+      <c r="A138" s="280"/>
+      <c r="B138" s="275"/>
       <c r="C138" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D138" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="E138" s="274"/>
-      <c r="F138" s="277"/>
+      <c r="E138" s="386"/>
+      <c r="F138" s="369"/>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="269"/>
-      <c r="B139" s="295"/>
+      <c r="A139" s="280"/>
+      <c r="B139" s="275"/>
       <c r="C139" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D139" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="E139" s="274"/>
-      <c r="F139" s="277"/>
+      <c r="E139" s="386"/>
+      <c r="F139" s="369"/>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="269"/>
-      <c r="B140" s="296"/>
+      <c r="A140" s="280"/>
+      <c r="B140" s="276"/>
       <c r="C140" s="89" t="s">
         <v>46</v>
       </c>
       <c r="D140" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="E140" s="274"/>
-      <c r="F140" s="278"/>
+      <c r="E140" s="386"/>
+      <c r="F140" s="370"/>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="269"/>
-      <c r="B141" s="290" t="s">
+      <c r="A141" s="280"/>
+      <c r="B141" s="273" t="s">
         <v>27</v>
       </c>
       <c r="C141" s="88" t="s">
@@ -9177,62 +9231,62 @@
       <c r="D141" s="167">
         <v>30300000</v>
       </c>
-      <c r="E141" s="274"/>
-      <c r="F141" s="297" t="s">
+      <c r="E141" s="386"/>
+      <c r="F141" s="378" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="269"/>
-      <c r="B142" s="289"/>
+      <c r="A142" s="280"/>
+      <c r="B142" s="272"/>
       <c r="C142" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D142" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="E142" s="274"/>
-      <c r="F142" s="277"/>
+      <c r="E142" s="386"/>
+      <c r="F142" s="369"/>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="269"/>
-      <c r="B143" s="289"/>
+      <c r="A143" s="280"/>
+      <c r="B143" s="272"/>
       <c r="C143" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D143" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="E143" s="274"/>
-      <c r="F143" s="277"/>
+      <c r="E143" s="386"/>
+      <c r="F143" s="369"/>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="269"/>
-      <c r="B144" s="289"/>
+      <c r="A144" s="280"/>
+      <c r="B144" s="272"/>
       <c r="C144" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D144" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="E144" s="274"/>
-      <c r="F144" s="277"/>
+      <c r="E144" s="386"/>
+      <c r="F144" s="369"/>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="269"/>
-      <c r="B145" s="303"/>
+      <c r="A145" s="280"/>
+      <c r="B145" s="283"/>
       <c r="C145" s="89" t="s">
         <v>46</v>
       </c>
       <c r="D145" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="E145" s="274"/>
-      <c r="F145" s="278"/>
+      <c r="E145" s="386"/>
+      <c r="F145" s="370"/>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="269"/>
-      <c r="B146" s="304" t="s">
+      <c r="A146" s="280"/>
+      <c r="B146" s="284" t="s">
         <v>29</v>
       </c>
       <c r="C146" s="88" t="s">
@@ -9241,94 +9295,94 @@
       <c r="D146" s="167">
         <v>4000000</v>
       </c>
-      <c r="E146" s="274"/>
-      <c r="F146" s="297" t="s">
+      <c r="E146" s="386"/>
+      <c r="F146" s="378" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="269"/>
-      <c r="B147" s="295"/>
+      <c r="A147" s="280"/>
+      <c r="B147" s="275"/>
       <c r="C147" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D147" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="E147" s="274"/>
-      <c r="F147" s="277"/>
+      <c r="E147" s="386"/>
+      <c r="F147" s="369"/>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="269"/>
-      <c r="B148" s="295"/>
+      <c r="A148" s="280"/>
+      <c r="B148" s="275"/>
       <c r="C148" s="90" t="s">
         <v>38</v>
       </c>
       <c r="D148" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="E148" s="274"/>
-      <c r="F148" s="277"/>
+      <c r="E148" s="386"/>
+      <c r="F148" s="369"/>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="269"/>
-      <c r="B149" s="295"/>
-      <c r="C149" s="298" t="s">
+      <c r="A149" s="280"/>
+      <c r="B149" s="275"/>
+      <c r="C149" s="277" t="s">
         <v>40</v>
       </c>
       <c r="D149" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="E149" s="274"/>
-      <c r="F149" s="277"/>
+      <c r="E149" s="386"/>
+      <c r="F149" s="369"/>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="269"/>
-      <c r="B150" s="295"/>
-      <c r="C150" s="299"/>
+      <c r="A150" s="280"/>
+      <c r="B150" s="275"/>
+      <c r="C150" s="278"/>
       <c r="D150" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="E150" s="274"/>
-      <c r="F150" s="277"/>
+      <c r="E150" s="386"/>
+      <c r="F150" s="369"/>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="269"/>
-      <c r="B151" s="295"/>
-      <c r="C151" s="299"/>
+      <c r="A151" s="280"/>
+      <c r="B151" s="275"/>
+      <c r="C151" s="278"/>
       <c r="D151" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E151" s="274"/>
-      <c r="F151" s="277"/>
+      <c r="E151" s="386"/>
+      <c r="F151" s="369"/>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="269"/>
-      <c r="B152" s="295"/>
-      <c r="C152" s="300"/>
+      <c r="A152" s="280"/>
+      <c r="B152" s="275"/>
+      <c r="C152" s="279"/>
       <c r="D152" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="E152" s="274"/>
-      <c r="F152" s="277"/>
+      <c r="E152" s="386"/>
+      <c r="F152" s="369"/>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="269"/>
-      <c r="B153" s="296"/>
+      <c r="A153" s="280"/>
+      <c r="B153" s="276"/>
       <c r="C153" s="95" t="s">
         <v>46</v>
       </c>
       <c r="D153" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="E153" s="275"/>
-      <c r="F153" s="278"/>
+      <c r="E153" s="387"/>
+      <c r="F153" s="370"/>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="269" t="s">
+      <c r="A154" s="280" t="s">
         <v>6</v>
       </c>
-      <c r="B154" s="270" t="s">
+      <c r="B154" s="265" t="s">
         <v>18</v>
       </c>
       <c r="C154" s="72" t="s">
@@ -9338,104 +9392,104 @@
         <f>9450000+9450000*0.6+92600000</f>
         <v>107720000</v>
       </c>
-      <c r="E154" s="316" t="s">
+      <c r="E154" s="396" t="s">
         <v>10</v>
       </c>
-      <c r="F154" s="276">
+      <c r="F154" s="377">
         <v>3250</v>
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="269"/>
-      <c r="B155" s="271"/>
+      <c r="A155" s="280"/>
+      <c r="B155" s="266"/>
       <c r="C155" s="66" t="s">
         <v>36</v>
       </c>
       <c r="D155" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="E155" s="317"/>
-      <c r="F155" s="277"/>
+      <c r="E155" s="397"/>
+      <c r="F155" s="369"/>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="269"/>
-      <c r="B156" s="271"/>
+      <c r="A156" s="280"/>
+      <c r="B156" s="266"/>
       <c r="C156" s="85" t="s">
         <v>38</v>
       </c>
       <c r="D156" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="E156" s="317"/>
-      <c r="F156" s="277"/>
+      <c r="E156" s="397"/>
+      <c r="F156" s="369"/>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="269"/>
-      <c r="B157" s="272"/>
-      <c r="C157" s="279" t="s">
+      <c r="A157" s="280"/>
+      <c r="B157" s="267"/>
+      <c r="C157" s="262" t="s">
         <v>40</v>
       </c>
       <c r="D157" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="E157" s="317"/>
-      <c r="F157" s="277"/>
+      <c r="E157" s="397"/>
+      <c r="F157" s="369"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="269"/>
-      <c r="B158" s="272"/>
-      <c r="C158" s="280"/>
+      <c r="A158" s="280"/>
+      <c r="B158" s="267"/>
+      <c r="C158" s="263"/>
       <c r="D158" s="164" t="s">
         <v>42</v>
       </c>
-      <c r="E158" s="317"/>
-      <c r="F158" s="277"/>
+      <c r="E158" s="397"/>
+      <c r="F158" s="369"/>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="269"/>
-      <c r="B159" s="272"/>
-      <c r="C159" s="280"/>
+      <c r="A159" s="280"/>
+      <c r="B159" s="267"/>
+      <c r="C159" s="263"/>
       <c r="D159" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="E159" s="317"/>
-      <c r="F159" s="277"/>
+      <c r="E159" s="397"/>
+      <c r="F159" s="369"/>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="269"/>
-      <c r="B160" s="272"/>
-      <c r="C160" s="280"/>
+      <c r="A160" s="280"/>
+      <c r="B160" s="267"/>
+      <c r="C160" s="263"/>
       <c r="D160" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="E160" s="317"/>
-      <c r="F160" s="277"/>
+      <c r="E160" s="397"/>
+      <c r="F160" s="369"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="269"/>
-      <c r="B161" s="272"/>
-      <c r="C161" s="281"/>
+      <c r="A161" s="280"/>
+      <c r="B161" s="267"/>
+      <c r="C161" s="264"/>
       <c r="D161" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="E161" s="317"/>
-      <c r="F161" s="277"/>
+      <c r="E161" s="397"/>
+      <c r="F161" s="369"/>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="269"/>
-      <c r="B162" s="271"/>
+      <c r="A162" s="280"/>
+      <c r="B162" s="266"/>
       <c r="C162" s="160" t="s">
         <v>46</v>
       </c>
       <c r="D162" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="E162" s="317"/>
-      <c r="F162" s="278"/>
+      <c r="E162" s="397"/>
+      <c r="F162" s="370"/>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="269"/>
-      <c r="B163" s="282" t="s">
+      <c r="A163" s="280"/>
+      <c r="B163" s="268" t="s">
         <v>21</v>
       </c>
       <c r="C163" s="72" t="s">
@@ -9444,80 +9498,80 @@
       <c r="D163" s="167">
         <v>2950538</v>
       </c>
-      <c r="E163" s="317"/>
-      <c r="F163" s="283"/>
+      <c r="E163" s="397"/>
+      <c r="F163" s="371"/>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="269"/>
-      <c r="B164" s="282"/>
+      <c r="A164" s="280"/>
+      <c r="B164" s="268"/>
       <c r="C164" s="66" t="s">
         <v>36</v>
       </c>
       <c r="D164" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="E164" s="317"/>
-      <c r="F164" s="284"/>
+      <c r="E164" s="397"/>
+      <c r="F164" s="372"/>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="269"/>
-      <c r="B165" s="282"/>
+      <c r="A165" s="280"/>
+      <c r="B165" s="268"/>
       <c r="C165" s="85" t="s">
         <v>38</v>
       </c>
       <c r="D165" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="E165" s="317"/>
-      <c r="F165" s="284"/>
+      <c r="E165" s="397"/>
+      <c r="F165" s="372"/>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="269"/>
-      <c r="B166" s="282"/>
-      <c r="C166" s="286" t="s">
+      <c r="A166" s="280"/>
+      <c r="B166" s="268"/>
+      <c r="C166" s="269" t="s">
         <v>40</v>
       </c>
       <c r="D166" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="E166" s="317"/>
-      <c r="F166" s="284"/>
+      <c r="E166" s="397"/>
+      <c r="F166" s="372"/>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="269"/>
-      <c r="B167" s="282"/>
-      <c r="C167" s="287"/>
+      <c r="A167" s="280"/>
+      <c r="B167" s="268"/>
+      <c r="C167" s="270"/>
       <c r="D167" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="E167" s="317"/>
-      <c r="F167" s="284"/>
+      <c r="E167" s="397"/>
+      <c r="F167" s="372"/>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="269"/>
-      <c r="B168" s="282"/>
-      <c r="C168" s="288"/>
+      <c r="A168" s="280"/>
+      <c r="B168" s="268"/>
+      <c r="C168" s="271"/>
       <c r="D168" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="E168" s="317"/>
-      <c r="F168" s="284"/>
+      <c r="E168" s="397"/>
+      <c r="F168" s="372"/>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="269"/>
-      <c r="B169" s="282"/>
+      <c r="A169" s="280"/>
+      <c r="B169" s="268"/>
       <c r="C169" s="86" t="s">
         <v>46</v>
       </c>
       <c r="D169" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="E169" s="317"/>
-      <c r="F169" s="285"/>
+      <c r="E169" s="397"/>
+      <c r="F169" s="373"/>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="269"/>
-      <c r="B170" s="289" t="s">
+      <c r="A170" s="280"/>
+      <c r="B170" s="272" t="s">
         <v>23</v>
       </c>
       <c r="C170" s="103" t="s">
@@ -9526,62 +9580,62 @@
       <c r="D170" s="178">
         <v>5000000</v>
       </c>
-      <c r="E170" s="317"/>
-      <c r="F170" s="292" t="s">
+      <c r="E170" s="397"/>
+      <c r="F170" s="379" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="269"/>
-      <c r="B171" s="290"/>
+      <c r="A171" s="280"/>
+      <c r="B171" s="273"/>
       <c r="C171" s="104" t="s">
         <v>36</v>
       </c>
       <c r="D171" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="E171" s="317"/>
-      <c r="F171" s="293"/>
+      <c r="E171" s="397"/>
+      <c r="F171" s="380"/>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="269"/>
-      <c r="B172" s="290"/>
+      <c r="A172" s="280"/>
+      <c r="B172" s="273"/>
       <c r="C172" s="104" t="s">
         <v>38</v>
       </c>
       <c r="D172" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="E172" s="317"/>
-      <c r="F172" s="293"/>
+      <c r="E172" s="397"/>
+      <c r="F172" s="380"/>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="269"/>
-      <c r="B173" s="290"/>
+      <c r="A173" s="280"/>
+      <c r="B173" s="273"/>
       <c r="C173" s="104" t="s">
         <v>40</v>
       </c>
       <c r="D173" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="E173" s="317"/>
-      <c r="F173" s="293"/>
+      <c r="E173" s="397"/>
+      <c r="F173" s="380"/>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="269"/>
-      <c r="B174" s="291"/>
+      <c r="A174" s="280"/>
+      <c r="B174" s="274"/>
       <c r="C174" s="105" t="s">
         <v>46</v>
       </c>
       <c r="D174" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="E174" s="317"/>
-      <c r="F174" s="294"/>
+      <c r="E174" s="397"/>
+      <c r="F174" s="381"/>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="269"/>
-      <c r="B175" s="270" t="s">
+      <c r="A175" s="280"/>
+      <c r="B175" s="265" t="s">
         <v>25</v>
       </c>
       <c r="C175" s="72" t="s">
@@ -9590,62 +9644,62 @@
       <c r="D175" s="167">
         <v>25000000</v>
       </c>
-      <c r="E175" s="317"/>
-      <c r="F175" s="276" t="s">
+      <c r="E175" s="397"/>
+      <c r="F175" s="377" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="269"/>
-      <c r="B176" s="271"/>
+      <c r="A176" s="280"/>
+      <c r="B176" s="266"/>
       <c r="C176" s="66" t="s">
         <v>36</v>
       </c>
       <c r="D176" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="E176" s="317"/>
-      <c r="F176" s="277"/>
+      <c r="E176" s="397"/>
+      <c r="F176" s="369"/>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="269"/>
-      <c r="B177" s="271"/>
+      <c r="A177" s="280"/>
+      <c r="B177" s="266"/>
       <c r="C177" s="66" t="s">
         <v>38</v>
       </c>
       <c r="D177" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="E177" s="317"/>
-      <c r="F177" s="277"/>
+      <c r="E177" s="397"/>
+      <c r="F177" s="369"/>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="269"/>
-      <c r="B178" s="271"/>
+      <c r="A178" s="280"/>
+      <c r="B178" s="266"/>
       <c r="C178" s="66" t="s">
         <v>40</v>
       </c>
       <c r="D178" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="E178" s="317"/>
-      <c r="F178" s="277"/>
+      <c r="E178" s="397"/>
+      <c r="F178" s="369"/>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="269"/>
-      <c r="B179" s="271"/>
+      <c r="A179" s="280"/>
+      <c r="B179" s="266"/>
       <c r="C179" s="73" t="s">
         <v>46</v>
       </c>
       <c r="D179" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="E179" s="317"/>
-      <c r="F179" s="278"/>
+      <c r="E179" s="397"/>
+      <c r="F179" s="370"/>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="269"/>
-      <c r="B180" s="289" t="s">
+      <c r="A180" s="280"/>
+      <c r="B180" s="272" t="s">
         <v>27</v>
       </c>
       <c r="C180" s="88" t="s">
@@ -9654,62 +9708,62 @@
       <c r="D180" s="167">
         <v>30500000</v>
       </c>
-      <c r="E180" s="317"/>
-      <c r="F180" s="297" t="s">
+      <c r="E180" s="397"/>
+      <c r="F180" s="378" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="269"/>
-      <c r="B181" s="289"/>
+      <c r="A181" s="280"/>
+      <c r="B181" s="272"/>
       <c r="C181" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D181" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="E181" s="317"/>
-      <c r="F181" s="277"/>
+      <c r="E181" s="397"/>
+      <c r="F181" s="369"/>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="269"/>
-      <c r="B182" s="289"/>
+      <c r="A182" s="280"/>
+      <c r="B182" s="272"/>
       <c r="C182" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D182" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="E182" s="317"/>
-      <c r="F182" s="277"/>
+      <c r="E182" s="397"/>
+      <c r="F182" s="369"/>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="269"/>
-      <c r="B183" s="289"/>
+      <c r="A183" s="280"/>
+      <c r="B183" s="272"/>
       <c r="C183" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D183" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="E183" s="317"/>
-      <c r="F183" s="277"/>
+      <c r="E183" s="397"/>
+      <c r="F183" s="369"/>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="269"/>
-      <c r="B184" s="289"/>
+      <c r="A184" s="280"/>
+      <c r="B184" s="272"/>
       <c r="C184" s="89" t="s">
         <v>46</v>
       </c>
       <c r="D184" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="E184" s="317"/>
-      <c r="F184" s="278"/>
+      <c r="E184" s="397"/>
+      <c r="F184" s="370"/>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="269"/>
-      <c r="B185" s="295" t="s">
+      <c r="A185" s="280"/>
+      <c r="B185" s="275" t="s">
         <v>29</v>
       </c>
       <c r="C185" s="88" t="s">
@@ -9718,94 +9772,94 @@
       <c r="D185" s="167">
         <v>10000000</v>
       </c>
-      <c r="E185" s="317"/>
-      <c r="F185" s="297" t="s">
+      <c r="E185" s="397"/>
+      <c r="F185" s="378" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="269"/>
-      <c r="B186" s="295"/>
+      <c r="A186" s="280"/>
+      <c r="B186" s="275"/>
       <c r="C186" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D186" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="E186" s="317"/>
-      <c r="F186" s="277"/>
+      <c r="E186" s="397"/>
+      <c r="F186" s="369"/>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="269"/>
-      <c r="B187" s="295"/>
+      <c r="A187" s="280"/>
+      <c r="B187" s="275"/>
       <c r="C187" s="90" t="s">
         <v>38</v>
       </c>
       <c r="D187" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="E187" s="317"/>
-      <c r="F187" s="277"/>
+      <c r="E187" s="397"/>
+      <c r="F187" s="369"/>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="269"/>
-      <c r="B188" s="295"/>
-      <c r="C188" s="298" t="s">
+      <c r="A188" s="280"/>
+      <c r="B188" s="275"/>
+      <c r="C188" s="277" t="s">
         <v>40</v>
       </c>
       <c r="D188" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="E188" s="317"/>
-      <c r="F188" s="277"/>
+      <c r="E188" s="397"/>
+      <c r="F188" s="369"/>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="269"/>
-      <c r="B189" s="295"/>
-      <c r="C189" s="299"/>
+      <c r="A189" s="280"/>
+      <c r="B189" s="275"/>
+      <c r="C189" s="278"/>
       <c r="D189" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="E189" s="317"/>
-      <c r="F189" s="277"/>
+      <c r="E189" s="397"/>
+      <c r="F189" s="369"/>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="269"/>
-      <c r="B190" s="295"/>
-      <c r="C190" s="299"/>
+      <c r="A190" s="280"/>
+      <c r="B190" s="275"/>
+      <c r="C190" s="278"/>
       <c r="D190" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E190" s="317"/>
-      <c r="F190" s="277"/>
+      <c r="E190" s="397"/>
+      <c r="F190" s="369"/>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="269"/>
-      <c r="B191" s="295"/>
-      <c r="C191" s="300"/>
+      <c r="A191" s="280"/>
+      <c r="B191" s="275"/>
+      <c r="C191" s="279"/>
       <c r="D191" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="E191" s="317"/>
-      <c r="F191" s="277"/>
+      <c r="E191" s="397"/>
+      <c r="F191" s="369"/>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="269"/>
-      <c r="B192" s="296"/>
+      <c r="A192" s="280"/>
+      <c r="B192" s="276"/>
       <c r="C192" s="95" t="s">
         <v>46</v>
       </c>
       <c r="D192" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="E192" s="318"/>
-      <c r="F192" s="278"/>
+      <c r="E192" s="398"/>
+      <c r="F192" s="370"/>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="269" t="s">
+      <c r="A193" s="280" t="s">
         <v>7</v>
       </c>
-      <c r="B193" s="270" t="s">
+      <c r="B193" s="265" t="s">
         <v>18</v>
       </c>
       <c r="C193" s="72" t="s">
@@ -9815,104 +9869,104 @@
         <f>9450000+9450000*0.9+101600000</f>
         <v>119555000</v>
       </c>
-      <c r="E193" s="273" t="s">
+      <c r="E193" s="385" t="s">
         <v>70</v>
       </c>
-      <c r="F193" s="276">
+      <c r="F193" s="377">
         <v>3550</v>
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="269"/>
-      <c r="B194" s="271"/>
+      <c r="A194" s="280"/>
+      <c r="B194" s="266"/>
       <c r="C194" s="66" t="s">
         <v>36</v>
       </c>
       <c r="D194" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="E194" s="274"/>
-      <c r="F194" s="277"/>
+      <c r="E194" s="386"/>
+      <c r="F194" s="369"/>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="269"/>
-      <c r="B195" s="271"/>
+      <c r="A195" s="280"/>
+      <c r="B195" s="266"/>
       <c r="C195" s="85" t="s">
         <v>38</v>
       </c>
       <c r="D195" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="E195" s="274"/>
-      <c r="F195" s="277"/>
+      <c r="E195" s="386"/>
+      <c r="F195" s="369"/>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="269"/>
-      <c r="B196" s="272"/>
-      <c r="C196" s="279" t="s">
+      <c r="A196" s="280"/>
+      <c r="B196" s="267"/>
+      <c r="C196" s="262" t="s">
         <v>40</v>
       </c>
       <c r="D196" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="E196" s="274"/>
-      <c r="F196" s="277"/>
+      <c r="E196" s="386"/>
+      <c r="F196" s="369"/>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="269"/>
-      <c r="B197" s="272"/>
-      <c r="C197" s="280"/>
+      <c r="A197" s="280"/>
+      <c r="B197" s="267"/>
+      <c r="C197" s="263"/>
       <c r="D197" s="164" t="s">
         <v>42</v>
       </c>
-      <c r="E197" s="274"/>
-      <c r="F197" s="277"/>
+      <c r="E197" s="386"/>
+      <c r="F197" s="369"/>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="269"/>
-      <c r="B198" s="272"/>
-      <c r="C198" s="280"/>
+      <c r="A198" s="280"/>
+      <c r="B198" s="267"/>
+      <c r="C198" s="263"/>
       <c r="D198" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="E198" s="274"/>
-      <c r="F198" s="277"/>
+      <c r="E198" s="386"/>
+      <c r="F198" s="369"/>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="269"/>
-      <c r="B199" s="272"/>
-      <c r="C199" s="280"/>
+      <c r="A199" s="280"/>
+      <c r="B199" s="267"/>
+      <c r="C199" s="263"/>
       <c r="D199" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="E199" s="274"/>
-      <c r="F199" s="277"/>
+      <c r="E199" s="386"/>
+      <c r="F199" s="369"/>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="269"/>
-      <c r="B200" s="272"/>
-      <c r="C200" s="281"/>
+      <c r="A200" s="280"/>
+      <c r="B200" s="267"/>
+      <c r="C200" s="264"/>
       <c r="D200" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="E200" s="274"/>
-      <c r="F200" s="277"/>
+      <c r="E200" s="386"/>
+      <c r="F200" s="369"/>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="269"/>
-      <c r="B201" s="271"/>
+      <c r="A201" s="280"/>
+      <c r="B201" s="266"/>
       <c r="C201" s="160" t="s">
         <v>46</v>
       </c>
       <c r="D201" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="E201" s="274"/>
-      <c r="F201" s="278"/>
+      <c r="E201" s="386"/>
+      <c r="F201" s="370"/>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="269"/>
-      <c r="B202" s="282" t="s">
+      <c r="A202" s="280"/>
+      <c r="B202" s="268" t="s">
         <v>21</v>
       </c>
       <c r="C202" s="72" t="s">
@@ -9921,80 +9975,80 @@
       <c r="D202" s="167">
         <v>5273302</v>
       </c>
-      <c r="E202" s="274"/>
-      <c r="F202" s="283"/>
+      <c r="E202" s="386"/>
+      <c r="F202" s="371"/>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="269"/>
-      <c r="B203" s="282"/>
+      <c r="A203" s="280"/>
+      <c r="B203" s="268"/>
       <c r="C203" s="66" t="s">
         <v>36</v>
       </c>
       <c r="D203" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="E203" s="274"/>
-      <c r="F203" s="284"/>
+      <c r="E203" s="386"/>
+      <c r="F203" s="372"/>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="269"/>
-      <c r="B204" s="282"/>
+      <c r="A204" s="280"/>
+      <c r="B204" s="268"/>
       <c r="C204" s="85" t="s">
         <v>38</v>
       </c>
       <c r="D204" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="E204" s="274"/>
-      <c r="F204" s="284"/>
+      <c r="E204" s="386"/>
+      <c r="F204" s="372"/>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="269"/>
-      <c r="B205" s="282"/>
-      <c r="C205" s="286" t="s">
+      <c r="A205" s="280"/>
+      <c r="B205" s="268"/>
+      <c r="C205" s="269" t="s">
         <v>40</v>
       </c>
       <c r="D205" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="E205" s="274"/>
-      <c r="F205" s="284"/>
+      <c r="E205" s="386"/>
+      <c r="F205" s="372"/>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="269"/>
-      <c r="B206" s="282"/>
-      <c r="C206" s="287"/>
+      <c r="A206" s="280"/>
+      <c r="B206" s="268"/>
+      <c r="C206" s="270"/>
       <c r="D206" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="E206" s="274"/>
-      <c r="F206" s="284"/>
+      <c r="E206" s="386"/>
+      <c r="F206" s="372"/>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="269"/>
-      <c r="B207" s="282"/>
-      <c r="C207" s="288"/>
+      <c r="A207" s="280"/>
+      <c r="B207" s="268"/>
+      <c r="C207" s="271"/>
       <c r="D207" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="E207" s="274"/>
-      <c r="F207" s="284"/>
+      <c r="E207" s="386"/>
+      <c r="F207" s="372"/>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="269"/>
-      <c r="B208" s="282"/>
+      <c r="A208" s="280"/>
+      <c r="B208" s="268"/>
       <c r="C208" s="86" t="s">
         <v>46</v>
       </c>
       <c r="D208" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="E208" s="274"/>
-      <c r="F208" s="285"/>
+      <c r="E208" s="386"/>
+      <c r="F208" s="373"/>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="269"/>
-      <c r="B209" s="289" t="s">
+      <c r="A209" s="280"/>
+      <c r="B209" s="272" t="s">
         <v>23</v>
       </c>
       <c r="C209" s="103" t="s">
@@ -10003,62 +10057,62 @@
       <c r="D209" s="178">
         <v>10000000</v>
       </c>
-      <c r="E209" s="274"/>
-      <c r="F209" s="292">
+      <c r="E209" s="386"/>
+      <c r="F209" s="379">
         <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="269"/>
-      <c r="B210" s="290"/>
+      <c r="A210" s="280"/>
+      <c r="B210" s="273"/>
       <c r="C210" s="104" t="s">
         <v>36</v>
       </c>
       <c r="D210" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="E210" s="274"/>
-      <c r="F210" s="293"/>
+      <c r="E210" s="386"/>
+      <c r="F210" s="380"/>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="269"/>
-      <c r="B211" s="290"/>
+      <c r="A211" s="280"/>
+      <c r="B211" s="273"/>
       <c r="C211" s="104" t="s">
         <v>38</v>
       </c>
       <c r="D211" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="E211" s="274"/>
-      <c r="F211" s="293"/>
+      <c r="E211" s="386"/>
+      <c r="F211" s="380"/>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="269"/>
-      <c r="B212" s="290"/>
+      <c r="A212" s="280"/>
+      <c r="B212" s="273"/>
       <c r="C212" s="104" t="s">
         <v>40</v>
       </c>
       <c r="D212" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="E212" s="274"/>
-      <c r="F212" s="293"/>
+      <c r="E212" s="386"/>
+      <c r="F212" s="380"/>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="269"/>
-      <c r="B213" s="291"/>
+      <c r="A213" s="280"/>
+      <c r="B213" s="274"/>
       <c r="C213" s="105" t="s">
         <v>46</v>
       </c>
       <c r="D213" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="E213" s="274"/>
-      <c r="F213" s="294"/>
+      <c r="E213" s="386"/>
+      <c r="F213" s="381"/>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="269"/>
-      <c r="B214" s="270" t="s">
+      <c r="A214" s="280"/>
+      <c r="B214" s="265" t="s">
         <v>25</v>
       </c>
       <c r="C214" s="72" t="s">
@@ -10067,62 +10121,62 @@
       <c r="D214" s="167">
         <v>32000000</v>
       </c>
-      <c r="E214" s="274"/>
-      <c r="F214" s="276" t="s">
+      <c r="E214" s="386"/>
+      <c r="F214" s="377" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="269"/>
-      <c r="B215" s="271"/>
+      <c r="A215" s="280"/>
+      <c r="B215" s="266"/>
       <c r="C215" s="66" t="s">
         <v>36</v>
       </c>
       <c r="D215" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="E215" s="274"/>
-      <c r="F215" s="277"/>
+      <c r="E215" s="386"/>
+      <c r="F215" s="369"/>
     </row>
     <row r="216" spans="1:6">
-      <c r="A216" s="269"/>
-      <c r="B216" s="271"/>
+      <c r="A216" s="280"/>
+      <c r="B216" s="266"/>
       <c r="C216" s="66" t="s">
         <v>38</v>
       </c>
       <c r="D216" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="E216" s="274"/>
-      <c r="F216" s="277"/>
+      <c r="E216" s="386"/>
+      <c r="F216" s="369"/>
     </row>
     <row r="217" spans="1:6">
-      <c r="A217" s="269"/>
-      <c r="B217" s="271"/>
+      <c r="A217" s="280"/>
+      <c r="B217" s="266"/>
       <c r="C217" s="66" t="s">
         <v>40</v>
       </c>
       <c r="D217" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="E217" s="274"/>
-      <c r="F217" s="277"/>
+      <c r="E217" s="386"/>
+      <c r="F217" s="369"/>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="269"/>
-      <c r="B218" s="271"/>
+      <c r="A218" s="280"/>
+      <c r="B218" s="266"/>
       <c r="C218" s="73" t="s">
         <v>46</v>
       </c>
       <c r="D218" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="E218" s="274"/>
-      <c r="F218" s="278"/>
+      <c r="E218" s="386"/>
+      <c r="F218" s="370"/>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="269"/>
-      <c r="B219" s="289" t="s">
+      <c r="A219" s="280"/>
+      <c r="B219" s="272" t="s">
         <v>27</v>
       </c>
       <c r="C219" s="88" t="s">
@@ -10131,62 +10185,62 @@
       <c r="D219" s="167">
         <v>30800000</v>
       </c>
-      <c r="E219" s="274"/>
-      <c r="F219" s="297" t="s">
+      <c r="E219" s="386"/>
+      <c r="F219" s="378" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="220" spans="1:6">
-      <c r="A220" s="269"/>
-      <c r="B220" s="289"/>
+      <c r="A220" s="280"/>
+      <c r="B220" s="272"/>
       <c r="C220" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D220" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="E220" s="274"/>
-      <c r="F220" s="277"/>
+      <c r="E220" s="386"/>
+      <c r="F220" s="369"/>
     </row>
     <row r="221" spans="1:6">
-      <c r="A221" s="269"/>
-      <c r="B221" s="289"/>
+      <c r="A221" s="280"/>
+      <c r="B221" s="272"/>
       <c r="C221" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D221" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="E221" s="274"/>
-      <c r="F221" s="277"/>
+      <c r="E221" s="386"/>
+      <c r="F221" s="369"/>
     </row>
     <row r="222" spans="1:6">
-      <c r="A222" s="269"/>
-      <c r="B222" s="289"/>
+      <c r="A222" s="280"/>
+      <c r="B222" s="272"/>
       <c r="C222" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D222" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="E222" s="274"/>
-      <c r="F222" s="277"/>
+      <c r="E222" s="386"/>
+      <c r="F222" s="369"/>
     </row>
     <row r="223" spans="1:6">
-      <c r="A223" s="269"/>
-      <c r="B223" s="289"/>
+      <c r="A223" s="280"/>
+      <c r="B223" s="272"/>
       <c r="C223" s="89" t="s">
         <v>46</v>
       </c>
       <c r="D223" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="E223" s="274"/>
-      <c r="F223" s="278"/>
+      <c r="E223" s="386"/>
+      <c r="F223" s="370"/>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" s="269"/>
-      <c r="B224" s="295" t="s">
+      <c r="A224" s="280"/>
+      <c r="B224" s="275" t="s">
         <v>29</v>
       </c>
       <c r="C224" s="88" t="s">
@@ -10195,88 +10249,88 @@
       <c r="D224" s="167">
         <v>25000000</v>
       </c>
-      <c r="E224" s="274"/>
-      <c r="F224" s="297" t="s">
+      <c r="E224" s="386"/>
+      <c r="F224" s="378" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="269"/>
-      <c r="B225" s="295"/>
+      <c r="A225" s="280"/>
+      <c r="B225" s="275"/>
       <c r="C225" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D225" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="E225" s="274"/>
-      <c r="F225" s="277"/>
+      <c r="E225" s="386"/>
+      <c r="F225" s="369"/>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="269"/>
-      <c r="B226" s="295"/>
+      <c r="A226" s="280"/>
+      <c r="B226" s="275"/>
       <c r="C226" s="90" t="s">
         <v>38</v>
       </c>
       <c r="D226" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="E226" s="274"/>
-      <c r="F226" s="277"/>
+      <c r="E226" s="386"/>
+      <c r="F226" s="369"/>
     </row>
     <row r="227" spans="1:6">
-      <c r="A227" s="269"/>
-      <c r="B227" s="295"/>
-      <c r="C227" s="298" t="s">
+      <c r="A227" s="280"/>
+      <c r="B227" s="275"/>
+      <c r="C227" s="277" t="s">
         <v>40</v>
       </c>
       <c r="D227" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="E227" s="274"/>
-      <c r="F227" s="277"/>
+      <c r="E227" s="386"/>
+      <c r="F227" s="369"/>
     </row>
     <row r="228" spans="1:6">
-      <c r="A228" s="269"/>
-      <c r="B228" s="295"/>
-      <c r="C228" s="299"/>
+      <c r="A228" s="280"/>
+      <c r="B228" s="275"/>
+      <c r="C228" s="278"/>
       <c r="D228" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="E228" s="274"/>
-      <c r="F228" s="277"/>
+      <c r="E228" s="386"/>
+      <c r="F228" s="369"/>
     </row>
     <row r="229" spans="1:6">
-      <c r="A229" s="269"/>
-      <c r="B229" s="295"/>
-      <c r="C229" s="299"/>
+      <c r="A229" s="280"/>
+      <c r="B229" s="275"/>
+      <c r="C229" s="278"/>
       <c r="D229" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E229" s="274"/>
-      <c r="F229" s="277"/>
+      <c r="E229" s="386"/>
+      <c r="F229" s="369"/>
     </row>
     <row r="230" spans="1:6">
-      <c r="A230" s="269"/>
-      <c r="B230" s="295"/>
-      <c r="C230" s="300"/>
+      <c r="A230" s="280"/>
+      <c r="B230" s="275"/>
+      <c r="C230" s="279"/>
       <c r="D230" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="E230" s="274"/>
-      <c r="F230" s="277"/>
+      <c r="E230" s="386"/>
+      <c r="F230" s="369"/>
     </row>
     <row r="231" spans="1:6">
-      <c r="A231" s="269"/>
-      <c r="B231" s="296"/>
+      <c r="A231" s="280"/>
+      <c r="B231" s="276"/>
       <c r="C231" s="95" t="s">
         <v>46</v>
       </c>
       <c r="D231" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="E231" s="275"/>
-      <c r="F231" s="278"/>
+      <c r="E231" s="387"/>
+      <c r="F231" s="370"/>
     </row>
   </sheetData>
   <mergeCells count="121">
@@ -10342,7 +10396,6 @@
     <mergeCell ref="B170:B174"/>
     <mergeCell ref="F170:F174"/>
     <mergeCell ref="B175:B179"/>
-    <mergeCell ref="C188:C191"/>
     <mergeCell ref="A76:A114"/>
     <mergeCell ref="B76:B84"/>
     <mergeCell ref="E76:E114"/>
@@ -10379,11 +10432,6 @@
     <mergeCell ref="F146:F153"/>
     <mergeCell ref="C149:C152"/>
     <mergeCell ref="C157:C161"/>
-    <mergeCell ref="F175:F179"/>
-    <mergeCell ref="B180:B184"/>
-    <mergeCell ref="F180:F184"/>
-    <mergeCell ref="B185:B192"/>
-    <mergeCell ref="F185:F192"/>
     <mergeCell ref="A193:A231"/>
     <mergeCell ref="B193:B201"/>
     <mergeCell ref="E193:E231"/>
@@ -10397,9 +10445,15 @@
     <mergeCell ref="B214:B218"/>
     <mergeCell ref="F214:F218"/>
     <mergeCell ref="B219:B223"/>
+    <mergeCell ref="F175:F179"/>
+    <mergeCell ref="B180:B184"/>
+    <mergeCell ref="F180:F184"/>
     <mergeCell ref="B224:B231"/>
     <mergeCell ref="F224:F231"/>
     <mergeCell ref="C227:C230"/>
+    <mergeCell ref="B185:B192"/>
+    <mergeCell ref="F185:F192"/>
+    <mergeCell ref="C188:C191"/>
     <mergeCell ref="F219:F223"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10409,10 +10463,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1746003-CC4D-4D32-9906-60130C95E1A6}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -10431,14 +10485,14 @@
       <c r="A1" s="198"/>
     </row>
     <row r="2" spans="1:7" ht="26.25">
-      <c r="B2" s="392" t="s">
+      <c r="B2" s="382" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="392"/>
-      <c r="D2" s="392"/>
-      <c r="E2" s="392"/>
-      <c r="F2" s="392"/>
-      <c r="G2" s="392"/>
+      <c r="C2" s="382"/>
+      <c r="D2" s="382"/>
+      <c r="E2" s="382"/>
+      <c r="F2" s="382"/>
+      <c r="G2" s="382"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="5"/>
@@ -10537,77 +10591,94 @@
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="26"/>
-      <c r="C9" s="7"/>
+      <c r="C9" s="124"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-    </row>
-    <row r="10" spans="1:7" ht="26.25" customHeight="1">
-      <c r="B10" s="120" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="118" t="s">
+      <c r="E9" s="124"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="383" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="122" t="s">
-        <v>84</v>
-      </c>
+      <c r="C10" s="384"/>
+      <c r="D10" s="384"/>
       <c r="E10" s="124"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="28.5" customHeight="1">
-      <c r="B11" s="195" t="s">
+    <row r="11" spans="1:7">
+      <c r="B11" s="26"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:7" ht="26.25" customHeight="1">
+      <c r="B12" s="120" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="118" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="122" t="s">
         <v>85</v>
-      </c>
-      <c r="C11" s="6">
-        <v>160</v>
-      </c>
-      <c r="D11" s="123">
-        <v>160</v>
-      </c>
-      <c r="E11" s="124"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" s="195" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="117">
-        <v>25550</v>
-      </c>
-      <c r="D12" s="138">
-        <v>63875</v>
       </c>
       <c r="E12" s="124"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="28.5" customHeight="1">
       <c r="B13" s="195" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="6">
+        <v>160</v>
+      </c>
+      <c r="D13" s="123">
+        <v>160</v>
+      </c>
+      <c r="E13" s="124"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="195" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="117">
+      <c r="C14" s="117">
+        <v>25550</v>
+      </c>
+      <c r="D14" s="138">
+        <v>63875</v>
+      </c>
+      <c r="E14" s="124"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="195" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="117">
         <v>4088000</v>
       </c>
-      <c r="D13" s="138">
+      <c r="D15" s="138">
         <v>10220000</v>
       </c>
-      <c r="E13" s="126"/>
-      <c r="F13" s="26"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="121" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="193" t="s">
+      <c r="E15" s="126"/>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="121" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="193" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="197" t="s">
+      <c r="D16" s="197" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -10619,10 +10690,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D83399-5D12-4B86-8D51-1FE968302689}">
-  <dimension ref="A2:M68"/>
+  <dimension ref="A2:M69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -10656,27 +10727,27 @@
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="116" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="6">
-        <v>604</v>
-      </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="116" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B6" s="6">
-        <v>700</v>
+        <v>604</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -10684,10 +10755,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="116" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="117">
-        <v>72000000</v>
+        <v>95</v>
+      </c>
+      <c r="B7" s="6">
+        <v>700</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -10695,16 +10766,22 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="116" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8" s="117">
-        <v>1555200</v>
+        <v>72000000</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13">
+      <c r="A9" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="117">
+        <v>1555200</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -10715,137 +10792,128 @@
       <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="120" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="118" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="118" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="122" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="122" t="s">
-        <v>100</v>
-      </c>
+      <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="120" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="118" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="118" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="122" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="119" t="s">
+      <c r="E12" s="122" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="119">
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="134" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="119" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="119">
         <v>324</v>
       </c>
-      <c r="D12" s="135">
+      <c r="D13" s="135">
         <v>260</v>
       </c>
-      <c r="E12" s="135">
+      <c r="E13" s="135">
         <v>2000</v>
       </c>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="133"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
       <c r="L13" s="109"/>
       <c r="M13" s="109"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="A14" s="133"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="L14" s="109"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1">
-      <c r="A16" s="254" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="254" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="254" t="s">
+      <c r="M14" s="109"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1">
+      <c r="A17" s="254" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="255" t="s">
+      <c r="B17" s="254" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="254" t="s">
+      <c r="C17" s="254" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="D17" s="255" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="254" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="6">
         <v>94</v>
       </c>
-      <c r="D17" s="123">
+      <c r="D18" s="123">
         <v>2500</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E18" s="6">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1">
-      <c r="A18" s="253"/>
-      <c r="B18" s="253"/>
-      <c r="C18" s="253"/>
-      <c r="D18" s="253"/>
-      <c r="E18" s="253"/>
-    </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
-      <c r="A19" s="252"/>
-      <c r="B19" s="252"/>
-      <c r="C19" s="252"/>
-      <c r="D19" s="252"/>
-      <c r="E19" s="252"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1">
-      <c r="A21" s="249" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="249" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="249" t="s">
+      <c r="A19" s="253"/>
+      <c r="B19" s="253"/>
+      <c r="C19" s="253"/>
+      <c r="D19" s="253"/>
+      <c r="E19" s="253"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1">
+      <c r="A20" s="252"/>
+      <c r="B20" s="252"/>
+      <c r="C20" s="252"/>
+      <c r="D20" s="252"/>
+      <c r="E20" s="252"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1">
+      <c r="A22" s="249" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="249" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="253"/>
-    </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="249" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="249" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="249" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="6">
-        <v>4</v>
-      </c>
-      <c r="D22" s="6">
-        <v>60</v>
-      </c>
+      <c r="E22" s="253"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1">
       <c r="A23" s="6" t="s">
@@ -10855,115 +10923,107 @@
         <v>109</v>
       </c>
       <c r="C23" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D23" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1">
-      <c r="A26" s="120" t="s">
+    <row r="24" spans="1:10" ht="15" customHeight="1">
+      <c r="A24" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="118" t="s">
+      <c r="B24" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="122" t="s">
+      <c r="C24" s="6">
+        <v>7</v>
+      </c>
+      <c r="D24" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1">
+      <c r="A27" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="F26" t="s">
+      <c r="B27" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="G26" t="s">
-        <v>98</v>
-      </c>
-      <c r="H26" s="256" t="s">
+      <c r="C27" s="122" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="256" t="s">
         <v>65</v>
       </c>
-      <c r="I26" s="250"/>
-      <c r="J26" s="250"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1">
-      <c r="A27" s="141" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="140">
+      <c r="I27" s="250"/>
+      <c r="J27" s="250"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1">
+      <c r="A28" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="140">
         <v>80000</v>
       </c>
-      <c r="C27" s="145">
+      <c r="C28" s="145">
         <v>25000000</v>
       </c>
-      <c r="F27" s="258" t="s">
-        <v>114</v>
-      </c>
-      <c r="G27">
+      <c r="F28" s="259" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28">
         <v>324</v>
       </c>
-      <c r="H27" s="267">
+      <c r="H28" s="368">
         <v>25000000</v>
       </c>
-      <c r="I27" s="257"/>
-      <c r="J27" s="257"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1">
-      <c r="A28" s="142" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="117">
-        <v>200000</v>
-      </c>
-      <c r="C28" s="138">
-        <v>18000000</v>
-      </c>
-      <c r="F28" s="259" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28">
-        <v>94</v>
-      </c>
-      <c r="H28" s="124">
-        <v>18000000</v>
-      </c>
-      <c r="I28" s="124"/>
-      <c r="J28" s="124"/>
+      <c r="I28" s="257"/>
+      <c r="J28" s="257"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1">
       <c r="A29" s="142" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B29" s="117">
-        <v>4000000</v>
+        <v>200000</v>
       </c>
       <c r="C29" s="138">
-        <v>12000000</v>
-      </c>
-      <c r="F29" s="259" t="s">
-        <v>106</v>
+        <v>18000000</v>
+      </c>
+      <c r="F29" s="260" t="s">
+        <v>105</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="H29" s="124">
-        <v>12000000</v>
+        <v>18000000</v>
       </c>
       <c r="I29" s="124"/>
       <c r="J29" s="124"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
-      <c r="A30" s="143" t="s">
-        <v>115</v>
+      <c r="A30" s="142" t="s">
+        <v>108</v>
       </c>
       <c r="B30" s="117">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="C30" s="138">
         <v>12000000</v>
       </c>
-      <c r="F30" s="31" t="s">
-        <v>115</v>
+      <c r="F30" s="260" t="s">
+        <v>108</v>
       </c>
       <c r="G30">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H30" s="124">
         <v>12000000</v>
@@ -10973,300 +11033,317 @@
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1">
       <c r="A31" s="143" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="117"/>
+        <v>117</v>
+      </c>
+      <c r="B31" s="117">
+        <v>2000000</v>
+      </c>
       <c r="C31" s="138">
-        <v>5000000</v>
+        <v>12000000</v>
       </c>
       <c r="F31" s="31" t="s">
         <v>117</v>
       </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
       <c r="H31" s="124">
-        <v>5000000</v>
+        <v>12000000</v>
       </c>
       <c r="I31" s="124"/>
       <c r="J31" s="124"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1">
-      <c r="A32" s="144" t="s">
+      <c r="A32" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="119"/>
-      <c r="C32" s="139">
-        <f>SUM(C27:C31)</f>
-        <v>72000000</v>
-      </c>
-      <c r="F32" s="250" t="s">
+      <c r="B32" s="117"/>
+      <c r="C32" s="138">
+        <v>5000000</v>
+      </c>
+      <c r="F32" s="31" t="s">
         <v>119</v>
       </c>
       <c r="H32" s="124">
-        <f>SUM(H27:H31)</f>
-        <v>72000000</v>
+        <v>5000000</v>
       </c>
       <c r="I32" s="124"/>
       <c r="J32" s="124"/>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1">
-      <c r="A33" s="7"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1">
+    <row r="33" spans="1:10" ht="15" customHeight="1">
+      <c r="A33" s="144" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="119"/>
+      <c r="C33" s="139">
+        <f>SUM(C28:C32)</f>
+        <v>72000000</v>
+      </c>
+      <c r="F33" s="250" t="s">
+        <v>121</v>
+      </c>
+      <c r="H33" s="124">
+        <f>SUM(H28:H32)</f>
+        <v>72000000</v>
+      </c>
+      <c r="I33" s="124"/>
+      <c r="J33" s="124"/>
+    </row>
+    <row r="34" spans="1:10" ht="15" customHeight="1">
       <c r="A34" s="7"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1">
+    <row r="35" spans="1:10" ht="15" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
-      <c r="F35" s="256" t="s">
-        <v>113</v>
-      </c>
-      <c r="G35" t="s">
-        <v>98</v>
-      </c>
-      <c r="H35" t="s">
+    </row>
+    <row r="36" spans="1:10" ht="15" customHeight="1">
+      <c r="A36" s="7"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="F36" s="256" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36" t="s">
+        <v>100</v>
+      </c>
+      <c r="H36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1">
-      <c r="A36" s="120" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="146" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="30"/>
-      <c r="F36" s="258" t="s">
-        <v>114</v>
-      </c>
-      <c r="G36">
-        <v>370</v>
-      </c>
-      <c r="H36" s="248">
-        <v>29600000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1">
-      <c r="A37" s="121" t="s">
+    <row r="37" spans="1:10" ht="15" customHeight="1">
+      <c r="A37" s="120" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="147" t="s">
+      <c r="B37" s="146" t="s">
         <v>123</v>
       </c>
       <c r="C37" s="30"/>
       <c r="F37" s="259" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="G37">
+        <v>370</v>
+      </c>
+      <c r="H37" s="248">
+        <v>29600000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1">
+      <c r="A38" s="121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="147" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="F38" s="260" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38">
         <v>98</v>
       </c>
-      <c r="H37" s="248">
+      <c r="H38" s="248">
         <v>18800000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1">
-      <c r="A38" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="F38" s="259" t="s">
-        <v>106</v>
-      </c>
-      <c r="G38">
+    <row r="39" spans="1:10" ht="15" customHeight="1">
+      <c r="A39" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="F39" s="260" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39">
         <v>5</v>
       </c>
-      <c r="H38" s="248">
+      <c r="H39" s="248">
         <v>16000000</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1">
-      <c r="A39" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="F39" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="G39">
-        <v>8</v>
-      </c>
-      <c r="H39" s="248">
-        <v>14000000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1">
+    <row r="40" spans="1:10" ht="15" customHeight="1">
       <c r="A40" s="30" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="F40" s="31" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="G40">
+        <v>8</v>
       </c>
       <c r="H40" s="248">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15" customHeight="1">
+      <c r="A41" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="F41" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="H41" s="248">
         <v>6000000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1">
-      <c r="A41" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="256" t="s">
-        <v>127</v>
-      </c>
-      <c r="F41" s="250" t="s">
-        <v>119</v>
-      </c>
-      <c r="H41" s="248">
-        <f>SUM(H36:H40)</f>
+    <row r="42" spans="1:10" ht="15" customHeight="1">
+      <c r="A42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="256" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" s="250" t="s">
+        <v>121</v>
+      </c>
+      <c r="H42" s="248">
+        <f>SUM(H37:H41)</f>
         <v>84400000</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1">
-      <c r="A42">
+    <row r="43" spans="1:10" ht="15" customHeight="1">
+      <c r="A43">
         <v>72000000</v>
       </c>
-      <c r="B42" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42">
+      <c r="B43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43">
         <v>2500</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1">
-      <c r="A43">
+    <row r="44" spans="1:10" ht="15" customHeight="1">
+      <c r="A44">
         <v>84400000</v>
       </c>
-      <c r="B43" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43">
+      <c r="B44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44">
         <v>3000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1">
-      <c r="A44">
+    <row r="45" spans="1:10" ht="15" customHeight="1">
+      <c r="A45">
         <v>92600000</v>
       </c>
-      <c r="B44" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44">
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45">
         <v>3250</v>
       </c>
-      <c r="F44" s="256" t="s">
-        <v>113</v>
-      </c>
-      <c r="G44" t="s">
-        <v>98</v>
-      </c>
-      <c r="H44" s="256" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1">
-      <c r="A45">
+      <c r="F45" s="256" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45" t="s">
+        <v>100</v>
+      </c>
+      <c r="H45" s="256" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15" customHeight="1">
+      <c r="A46">
         <v>101600000</v>
       </c>
-      <c r="B45" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45">
+      <c r="B46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46">
         <v>3550</v>
       </c>
-      <c r="F45" s="258" t="s">
-        <v>114</v>
-      </c>
-      <c r="G45">
+      <c r="F46" s="259" t="s">
+        <v>116</v>
+      </c>
+      <c r="G46">
         <v>380</v>
       </c>
-      <c r="H45" s="248">
+      <c r="H46" s="248">
         <v>30000000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1">
-      <c r="A46" s="7"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="F46" s="259" t="s">
-        <v>103</v>
-      </c>
-      <c r="G46">
-        <v>106</v>
-      </c>
-      <c r="H46" s="248">
-        <v>19600000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1">
+    <row r="47" spans="1:10" ht="15" customHeight="1">
       <c r="A47" s="7"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
-      <c r="F47" s="259" t="s">
+      <c r="F47" s="260" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47">
         <v>106</v>
       </c>
-      <c r="G47">
-        <v>6</v>
-      </c>
       <c r="H47" s="248">
-        <v>20000000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1">
-      <c r="A48" s="30" t="s">
-        <v>118</v>
-      </c>
+        <v>19600000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15" customHeight="1">
+      <c r="A48" s="7"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
-      <c r="F48" s="31" t="s">
-        <v>115</v>
+      <c r="F48" s="260" t="s">
+        <v>108</v>
       </c>
       <c r="G48">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H48" s="248">
-        <v>16000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1">
       <c r="A49" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
+        <v>126</v>
+      </c>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
       <c r="F49" s="31" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="G49">
+        <v>9</v>
       </c>
       <c r="H49" s="248">
-        <v>7000000</v>
+        <v>16000000</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1">
       <c r="A50" s="30" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
-      <c r="F50" s="250" t="s">
-        <v>119</v>
+      <c r="F50" s="31" t="s">
+        <v>127</v>
       </c>
       <c r="H50" s="248">
-        <f>SUM(H45:H49)</f>
-        <v>92600000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1">
-      <c r="A51" s="30"/>
+      <c r="A51" s="30" t="s">
+        <v>126</v>
+      </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
+      <c r="F51" s="250" t="s">
+        <v>121</v>
+      </c>
+      <c r="H51" s="248">
+        <f>SUM(H46:H50)</f>
+        <v>92600000</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1">
       <c r="A52" s="30"/>
@@ -11274,33 +11351,24 @@
       <c r="C52" s="7"/>
     </row>
     <row r="53" spans="1:8" ht="15" customHeight="1">
-      <c r="A53" s="31" t="s">
-        <v>118</v>
-      </c>
+      <c r="A53" s="30"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
-      <c r="F53" s="256" t="s">
-        <v>113</v>
-      </c>
-      <c r="G53" t="s">
-        <v>98</v>
-      </c>
-      <c r="H53" s="256" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="54" spans="1:8" ht="15" customHeight="1">
-      <c r="A54" s="7"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="F54" s="258" t="s">
-        <v>114</v>
-      </c>
-      <c r="G54">
-        <v>390</v>
-      </c>
-      <c r="H54" s="248">
-        <v>30400000</v>
+      <c r="A54" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="F54" s="256" t="s">
+        <v>115</v>
+      </c>
+      <c r="G54" t="s">
+        <v>100</v>
+      </c>
+      <c r="H54" s="256" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1">
@@ -11308,100 +11376,109 @@
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="F55" s="259" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="G55">
-        <v>110</v>
+        <v>390</v>
       </c>
       <c r="H55" s="248">
-        <v>21200000</v>
+        <v>30400000</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1">
       <c r="A56" s="7"/>
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
-      <c r="F56" s="259" t="s">
-        <v>106</v>
+      <c r="F56" s="260" t="s">
+        <v>105</v>
       </c>
       <c r="G56">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="H56" s="248">
-        <v>24000000</v>
+        <v>21200000</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15" customHeight="1">
       <c r="A57" s="7"/>
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
-      <c r="F57" s="31" t="s">
-        <v>115</v>
+      <c r="F57" s="260" t="s">
+        <v>108</v>
       </c>
       <c r="G57">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H57" s="248">
-        <v>18000000</v>
+        <v>24000000</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1">
-      <c r="A58" s="30" t="s">
-        <v>118</v>
-      </c>
+      <c r="A58" s="7"/>
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
       <c r="F58" s="31" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
       </c>
       <c r="H58" s="248">
-        <v>8000000</v>
+        <v>18000000</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1">
       <c r="A59" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="F59" t="s">
-        <v>119</v>
+        <v>126</v>
+      </c>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="F59" s="31" t="s">
+        <v>127</v>
       </c>
       <c r="H59" s="248">
-        <f>SUM(H54:H58)</f>
-        <v>101600000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15" customHeight="1">
       <c r="A60" s="30" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
+      <c r="F60" t="s">
+        <v>121</v>
+      </c>
+      <c r="H60" s="248">
+        <f>SUM(H55:H59)</f>
+        <v>101600000</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="15" customHeight="1">
       <c r="A61" s="30" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
     </row>
     <row r="62" spans="1:8" ht="15" customHeight="1">
-      <c r="A62" s="30"/>
+      <c r="A62" s="30" t="s">
+        <v>126</v>
+      </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
     </row>
     <row r="63" spans="1:8" ht="15" customHeight="1">
-      <c r="A63" s="31" t="s">
-        <v>118</v>
-      </c>
+      <c r="A63" s="30"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1">
-      <c r="A64" s="7"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
+      <c r="A64" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
     </row>
     <row r="65" spans="1:3" ht="15" customHeight="1">
       <c r="A65" s="7"/>
@@ -11420,8 +11497,13 @@
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1">
       <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+    </row>
+    <row r="69" spans="1:3" ht="15" customHeight="1">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11462,35 +11544,35 @@
   <sheetData>
     <row r="2" spans="2:6" ht="35.25" customHeight="1">
       <c r="C2" s="192" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="2:6" ht="51" customHeight="1">
-      <c r="B3" s="350" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="350"/>
-      <c r="D3" s="350"/>
-      <c r="E3" s="350"/>
+      <c r="B3" s="318" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="318"/>
+      <c r="D3" s="318"/>
+      <c r="E3" s="318"/>
     </row>
     <row r="4" spans="2:6" ht="30" customHeight="1">
       <c r="B4" s="200" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C4" s="200" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D4" s="200" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E4" s="200" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="24" customHeight="1">
       <c r="B5" s="183" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C5" s="183">
         <v>500</v>
@@ -11504,7 +11586,7 @@
     </row>
     <row r="6" spans="2:6" ht="23.25" customHeight="1">
       <c r="B6" s="183" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C6" s="183">
         <v>1200</v>
@@ -11519,7 +11601,7 @@
     </row>
     <row r="7" spans="2:6" ht="21.75" customHeight="1">
       <c r="B7" s="183" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C7" s="183">
         <v>2000</v>
@@ -11534,7 +11616,7 @@
     </row>
     <row r="8" spans="2:6" ht="23.25" customHeight="1">
       <c r="B8" s="183" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C8" s="183">
         <v>4000</v>
@@ -11554,24 +11636,24 @@
     </row>
     <row r="10" spans="2:6" ht="29.25" customHeight="1">
       <c r="B10" s="200" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C10" s="200" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D10" s="200" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E10" s="200" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F10" s="200" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="23.25" customHeight="1">
       <c r="B11" s="183" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C11" s="183">
         <v>6000</v>
@@ -11589,7 +11671,7 @@
     </row>
     <row r="12" spans="2:6" ht="23.25" customHeight="1">
       <c r="B12" s="183" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C12" s="183">
         <v>5000</v>
@@ -11607,7 +11689,7 @@
     </row>
     <row r="13" spans="2:6" ht="23.25" customHeight="1">
       <c r="B13" s="183" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C13" s="183">
         <v>7000</v>
@@ -11625,7 +11707,7 @@
     </row>
     <row r="14" spans="2:6" ht="23.25" customHeight="1">
       <c r="B14" s="183" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C14" s="183">
         <v>5500</v>
@@ -11643,7 +11725,7 @@
     </row>
     <row r="15" spans="2:6" ht="23.25" customHeight="1">
       <c r="B15" s="183" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C15" s="183">
         <v>4000</v>
@@ -11665,77 +11747,77 @@
       <c r="F16" s="27"/>
     </row>
     <row r="17" spans="2:6" ht="44.25" customHeight="1">
-      <c r="B17" s="350" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="350"/>
-      <c r="D17" s="350"/>
+      <c r="B17" s="318" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="318"/>
+      <c r="D17" s="318"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
     </row>
     <row r="18" spans="2:6" ht="30" customHeight="1">
       <c r="B18" s="200" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="353" t="s">
-        <v>156</v>
-      </c>
-      <c r="D18" s="354"/>
+        <v>158</v>
+      </c>
+      <c r="C18" s="321" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="322"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
     </row>
     <row r="19" spans="2:6" ht="23.25" customHeight="1">
       <c r="B19" s="183" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="355" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" s="356"/>
+        <v>160</v>
+      </c>
+      <c r="C19" s="323" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="324"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
     </row>
     <row r="20" spans="2:6" ht="23.25" customHeight="1">
       <c r="B20" s="183" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="355" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="356"/>
+        <v>162</v>
+      </c>
+      <c r="C20" s="323" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="324"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
     </row>
     <row r="21" spans="2:6" ht="23.25" customHeight="1">
       <c r="B21" s="183" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="355" t="s">
-        <v>162</v>
-      </c>
-      <c r="D21" s="356"/>
+        <v>164</v>
+      </c>
+      <c r="C21" s="323" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="324"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
     </row>
     <row r="22" spans="2:6" ht="23.25" customHeight="1">
       <c r="B22" s="183" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="355" t="s">
-        <v>164</v>
-      </c>
-      <c r="D22" s="356"/>
+        <v>166</v>
+      </c>
+      <c r="C22" s="323" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="324"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
     </row>
     <row r="23" spans="2:6" ht="23.25" customHeight="1">
       <c r="B23" s="183" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="355" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" s="356"/>
+        <v>168</v>
+      </c>
+      <c r="C23" s="323" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="324"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
     </row>
@@ -11746,34 +11828,34 @@
       <c r="F24" s="27"/>
     </row>
     <row r="25" spans="2:6" ht="46.5" customHeight="1">
-      <c r="B25" s="348" t="s">
-        <v>167</v>
-      </c>
-      <c r="C25" s="349"/>
-      <c r="D25" s="349"/>
-      <c r="E25" s="349"/>
-      <c r="F25" s="349"/>
+      <c r="B25" s="316" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="317"/>
+      <c r="D25" s="317"/>
+      <c r="E25" s="317"/>
+      <c r="F25" s="317"/>
     </row>
     <row r="26" spans="2:6" ht="32.25" customHeight="1">
       <c r="B26" s="200" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C26" s="200" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D26" s="200" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E26" s="200" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F26" s="200" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="23.25" customHeight="1">
       <c r="B27" s="183" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C27" s="183">
         <v>313887</v>
@@ -11790,7 +11872,7 @@
     </row>
     <row r="28" spans="2:6" ht="23.25" customHeight="1">
       <c r="B28" s="183" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C28" s="183">
         <v>502219</v>
@@ -11807,7 +11889,7 @@
     </row>
     <row r="29" spans="2:6" ht="23.25" customHeight="1">
       <c r="B29" s="183" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C29" s="183">
         <v>125554</v>
@@ -11824,7 +11906,7 @@
     </row>
     <row r="30" spans="2:6" ht="23.25" customHeight="1">
       <c r="B30" s="183" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C30" s="183">
         <v>94166</v>
@@ -11841,7 +11923,7 @@
     </row>
     <row r="31" spans="2:6" ht="23.25" customHeight="1">
       <c r="B31" s="183" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C31" s="183">
         <f>(C27+C28+C29+C30)</f>
@@ -11867,30 +11949,30 @@
       <c r="F32" s="27"/>
     </row>
     <row r="33" spans="2:6" ht="45.75" customHeight="1">
-      <c r="B33" s="348" t="s">
-        <v>178</v>
-      </c>
-      <c r="C33" s="349"/>
-      <c r="D33" s="349"/>
+      <c r="B33" s="316" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="317"/>
+      <c r="D33" s="317"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
     </row>
     <row r="34" spans="2:6" ht="31.5" customHeight="1">
       <c r="B34" s="200" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C34" s="200" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D34" s="200" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
     </row>
     <row r="35" spans="2:6" ht="23.25" customHeight="1">
       <c r="B35" s="183" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C35" s="183">
         <v>1035827</v>
@@ -11903,7 +11985,7 @@
     </row>
     <row r="36" spans="2:6" ht="23.25" customHeight="1">
       <c r="B36" s="183" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C36" s="183">
         <v>1946099</v>
@@ -11916,7 +11998,7 @@
     </row>
     <row r="37" spans="2:6" ht="23.25" customHeight="1">
       <c r="B37" s="183" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C37" s="183">
         <v>2950538</v>
@@ -11929,7 +12011,7 @@
     </row>
     <row r="38" spans="2:6" ht="23.25" customHeight="1">
       <c r="B38" s="183" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C38" s="183">
         <v>5273302</v>
@@ -11947,32 +12029,32 @@
       <c r="F39" s="27"/>
     </row>
     <row r="40" spans="2:6" ht="45" customHeight="1">
-      <c r="B40" s="351" t="s">
-        <v>181</v>
-      </c>
-      <c r="C40" s="352"/>
-      <c r="D40" s="352"/>
-      <c r="E40" s="352"/>
-      <c r="F40" s="352"/>
+      <c r="B40" s="319" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" s="320"/>
+      <c r="D40" s="320"/>
+      <c r="E40" s="320"/>
+      <c r="F40" s="320"/>
     </row>
     <row r="41" spans="2:6" ht="31.5" customHeight="1">
       <c r="B41" s="201"/>
       <c r="C41" s="202" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D41" s="202" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E41" s="202" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F41" s="202" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="23.25" customHeight="1">
       <c r="B42" s="199" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C42" s="183">
         <v>1000</v>
@@ -11990,7 +12072,7 @@
     </row>
     <row r="43" spans="2:6" ht="23.25" customHeight="1">
       <c r="B43" s="199" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C43" s="183">
         <v>1500</v>
@@ -12008,7 +12090,7 @@
     </row>
     <row r="44" spans="2:6" ht="23.25" customHeight="1">
       <c r="B44" s="199" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C44" s="183">
         <v>2000</v>
@@ -12069,7 +12151,7 @@
     <row r="52" spans="3:7" ht="23.25" customHeight="1">
       <c r="E52" s="67"/>
       <c r="F52" s="87" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G52" s="68"/>
     </row>
@@ -12081,124 +12163,124 @@
     <row r="54" spans="3:7" ht="24" customHeight="1">
       <c r="E54" s="69"/>
       <c r="F54" s="70" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G54" s="71" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="3:7" ht="29.25" customHeight="1">
       <c r="E55" s="62"/>
       <c r="F55" s="74" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G55" s="75" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="3:7" ht="30" customHeight="1">
       <c r="E56" s="63" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F56" s="74" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G56" s="76" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="3:7" ht="31.5" customHeight="1">
       <c r="E57" s="64"/>
       <c r="F57" s="77" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="3:7" ht="31.5" customHeight="1">
       <c r="E58" s="53"/>
       <c r="F58" s="78" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G58" s="76" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="3:7" ht="28.5" customHeight="1">
       <c r="E59" s="54" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F59" s="74" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G59" s="76" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" spans="3:7" ht="29.25" customHeight="1">
       <c r="E60" s="55"/>
       <c r="F60" s="74" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G60" s="76" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="3:7" ht="28.5" customHeight="1">
       <c r="E61" s="56"/>
       <c r="F61" s="79" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G61" s="79" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="3:7" ht="29.25" customHeight="1">
       <c r="E62" s="57" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F62" s="80" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G62" s="80" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="3:7" ht="28.5" customHeight="1">
       <c r="E63" s="58"/>
       <c r="F63" s="80" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G63" s="81" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="3:7" ht="29.25" customHeight="1">
       <c r="E64" s="59"/>
       <c r="F64" s="75" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G64" s="82" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="5:7" ht="28.5" customHeight="1">
       <c r="E65" s="60" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F65" s="76" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G65" s="82" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="5:7" ht="29.25" customHeight="1">
       <c r="E66" s="61"/>
       <c r="F66" s="84" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G66" s="83" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -12248,53 +12330,53 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33.75">
-      <c r="D3" s="357" t="s">
-        <v>219</v>
-      </c>
-      <c r="E3" s="357"/>
+      <c r="D3" s="365" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="365"/>
     </row>
     <row r="6" spans="1:12" ht="15.75">
       <c r="B6" s="19" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75">
       <c r="B7" s="17" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C7" s="15">
         <v>80</v>
@@ -12315,7 +12397,7 @@
         <v>520</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J7" s="174">
         <v>3609</v>
@@ -12329,7 +12411,7 @@
     </row>
     <row r="8" spans="1:12" ht="15.75">
       <c r="B8" s="17" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C8" s="15">
         <v>92</v>
@@ -12350,7 +12432,7 @@
         <v>580</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J8" s="174">
         <v>2952</v>
@@ -12364,7 +12446,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.75">
       <c r="B9" s="17" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C9" s="15">
         <v>78</v>
@@ -12385,7 +12467,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J9" s="174">
         <v>3078</v>
@@ -12399,7 +12481,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75">
       <c r="B10" s="17" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C10" s="15">
         <v>85</v>
@@ -12420,7 +12502,7 @@
         <v>410</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J10" s="174">
         <v>4266</v>
@@ -12434,7 +12516,7 @@
     </row>
     <row r="11" spans="1:12" ht="15.75">
       <c r="B11" s="22" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C11" s="23">
         <v>88</v>
@@ -12455,7 +12537,7 @@
         <v>300</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J11" s="175">
         <v>3278</v>
@@ -12469,7 +12551,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75">
       <c r="B12" s="177" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -12484,39 +12566,39 @@
     </row>
     <row r="13" spans="1:12" ht="15.75">
       <c r="B13" s="110" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C13" s="111" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D13" s="111" t="s">
-        <v>240</v>
-      </c>
-      <c r="E13" s="261" t="s">
-        <v>224</v>
+        <v>243</v>
+      </c>
+      <c r="E13" s="357" t="s">
+        <v>227</v>
       </c>
       <c r="F13" s="111" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G13" s="111" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H13" s="111" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I13" s="111" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J13" s="111" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K13" s="112" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75">
       <c r="B14" s="17" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C14" s="15">
         <v>80</v>
@@ -12548,7 +12630,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75">
       <c r="B15" s="17" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C15" s="15">
         <v>92</v>
@@ -12580,7 +12662,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75">
       <c r="B16" s="17" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C16" s="15">
         <v>78</v>
@@ -12612,7 +12694,7 @@
     </row>
     <row r="17" spans="2:11" ht="15.75">
       <c r="B17" s="17" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C17" s="15">
         <v>85</v>
@@ -12644,7 +12726,7 @@
     </row>
     <row r="18" spans="2:11" ht="15.75">
       <c r="B18" s="22" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C18" s="23">
         <v>88</v>
@@ -12676,7 +12758,7 @@
     </row>
     <row r="19" spans="2:11" ht="15.75">
       <c r="B19" s="177" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -12690,183 +12772,183 @@
     </row>
     <row r="20" spans="2:11" ht="15.75">
       <c r="B20" s="110" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C20" s="111" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D20" s="112" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="15.75">
       <c r="B21" s="17" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="15.75">
       <c r="B22" s="17" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="15.75">
       <c r="B23" s="17" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="15.75">
       <c r="B24" s="22" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="15.75">
       <c r="B25" s="177" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="25"/>
     </row>
     <row r="26" spans="2:11" ht="15.75">
       <c r="B26" s="110" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C26" s="111" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D26" s="111" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="111" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F26" s="112" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="15.75">
       <c r="B27" s="17" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E27" s="174">
         <v>327750</v>
       </c>
       <c r="F27" s="176" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="15.75">
       <c r="B28" s="17" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E28" s="174">
         <v>196650</v>
       </c>
       <c r="F28" s="176" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="15.75">
       <c r="B29" s="17" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E29" s="174">
         <v>983250</v>
       </c>
       <c r="F29" s="176" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="15.75">
       <c r="B30" s="17" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E30" s="174">
         <v>131100</v>
       </c>
       <c r="F30" s="176" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="15.75">
       <c r="B31" s="17" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E31" s="174">
         <v>458850</v>
       </c>
       <c r="F31" s="176" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="15.75">
       <c r="B32" s="22" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E32" s="175">
         <v>524700</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15.75">
@@ -12942,142 +13024,142 @@
     <row r="2" spans="2:7" hidden="1"/>
     <row r="3" spans="2:7" ht="26.25">
       <c r="D3" s="128" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="2:7" hidden="1">
       <c r="B5" s="8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="14" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1">
       <c r="B7" s="8" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="8" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="8" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="8" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="8" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="8" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="136" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G17" s="137">
         <v>0.8</v>
@@ -13085,19 +13167,19 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="136" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G18" s="137">
         <v>0.75</v>
@@ -13105,19 +13187,19 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="136" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G19" s="137">
         <v>0.8</v>
@@ -13125,29 +13207,29 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="127" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="27" customHeight="1">
       <c r="B23" s="131" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C23" s="131" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D23" s="129" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="381.75">
       <c r="B24" s="130" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C24" s="130" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D24" s="132" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -13212,53 +13294,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="36.75" customHeight="1">
-      <c r="C2" s="358" t="s">
-        <v>328</v>
-      </c>
-      <c r="D2" s="358"/>
-      <c r="E2" s="358"/>
+      <c r="C2" s="325" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" s="325"/>
+      <c r="E2" s="325"/>
     </row>
     <row r="5" spans="1:7" s="11" customFormat="1" ht="50.25" customHeight="1">
       <c r="A5" s="42"/>
       <c r="B5" s="148" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C5" s="148" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D5" s="149" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E5" s="43"/>
     </row>
     <row r="6" spans="1:7" ht="75.75" customHeight="1">
       <c r="B6" s="34" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D6" s="150" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="48.75" customHeight="1">
       <c r="B7" s="36" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D7" s="151" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="117" customHeight="1">
       <c r="B8" s="36" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>13</v>
@@ -13266,10 +13348,10 @@
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="72" customHeight="1">
       <c r="B9" s="36" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>13</v>
@@ -13277,68 +13359,68 @@
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="50.25" customHeight="1">
       <c r="B10" s="36" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D10" s="151" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" ht="69.75" customHeight="1">
       <c r="B11" s="39" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D11" s="152" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="11.25" customHeight="1"/>
     <row r="14" spans="1:7" ht="28.5" customHeight="1">
       <c r="C14" s="153" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D14" s="154" t="s">
-        <v>348</v>
-      </c>
-      <c r="E14" s="363" t="s">
-        <v>349</v>
-      </c>
-      <c r="F14" s="364"/>
+        <v>351</v>
+      </c>
+      <c r="E14" s="330" t="s">
+        <v>352</v>
+      </c>
+      <c r="F14" s="331"/>
       <c r="G14" s="155" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="21" customHeight="1">
-      <c r="A15" s="361" t="s">
-        <v>351</v>
-      </c>
-      <c r="B15" s="362"/>
+      <c r="A15" s="328" t="s">
+        <v>354</v>
+      </c>
+      <c r="B15" s="329"/>
       <c r="C15" s="156">
         <v>130</v>
       </c>
       <c r="D15" s="157">
         <v>250</v>
       </c>
-      <c r="E15" s="365">
+      <c r="E15" s="332">
         <f>D15-C15</f>
         <v>120</v>
       </c>
-      <c r="F15" s="366"/>
+      <c r="F15" s="333"/>
       <c r="G15" s="189">
         <f>D15/(C15+D15)</f>
         <v>0.65789473684210531</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A16" s="361" t="s">
-        <v>352</v>
-      </c>
-      <c r="B16" s="362"/>
+      <c r="A16" s="328" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" s="329"/>
       <c r="C16" s="187">
         <f>130*50000</f>
         <v>6500000</v>
@@ -13347,21 +13429,21 @@
         <f>250*50000</f>
         <v>12500000</v>
       </c>
-      <c r="E16" s="367">
+      <c r="E16" s="334">
         <f t="shared" ref="E16:E17" si="0">D16-C16</f>
         <v>6000000</v>
       </c>
-      <c r="F16" s="368"/>
+      <c r="F16" s="335"/>
       <c r="G16" s="190">
         <f>D16/(C16+D16)</f>
         <v>0.65789473684210531</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="36" customHeight="1">
-      <c r="A17" s="359" t="s">
-        <v>353</v>
-      </c>
-      <c r="B17" s="360"/>
+      <c r="A17" s="326" t="s">
+        <v>356</v>
+      </c>
+      <c r="B17" s="327"/>
       <c r="C17" s="187">
         <f>130*15000</f>
         <v>1950000</v>
@@ -13369,11 +13451,11 @@
       <c r="D17" s="157">
         <v>0</v>
       </c>
-      <c r="E17" s="367">
+      <c r="E17" s="334">
         <f>-D17+C17</f>
         <v>1950000</v>
       </c>
-      <c r="F17" s="368"/>
+      <c r="F17" s="335"/>
       <c r="G17" s="191">
         <f>1</f>
         <v>1</v>
@@ -13423,49 +13505,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15">
-      <c r="A2" s="377" t="s">
-        <v>354</v>
-      </c>
-      <c r="B2" s="378"/>
-      <c r="C2" s="378"/>
-      <c r="D2" s="378"/>
-      <c r="E2" s="378"/>
-      <c r="F2" s="378"/>
-      <c r="G2" s="378"/>
-      <c r="H2" s="378"/>
-      <c r="I2" s="378"/>
-      <c r="J2" s="378"/>
-      <c r="K2" s="378"/>
-      <c r="L2" s="378"/>
-      <c r="M2" s="378"/>
-      <c r="N2" s="378"/>
-      <c r="O2" s="378"/>
+      <c r="A2" s="366" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="367"/>
+      <c r="C2" s="367"/>
+      <c r="D2" s="367"/>
+      <c r="E2" s="367"/>
+      <c r="F2" s="367"/>
+      <c r="G2" s="367"/>
+      <c r="H2" s="367"/>
+      <c r="I2" s="367"/>
+      <c r="J2" s="367"/>
+      <c r="K2" s="367"/>
+      <c r="L2" s="367"/>
+      <c r="M2" s="367"/>
+      <c r="N2" s="367"/>
+      <c r="O2" s="367"/>
     </row>
     <row r="3" spans="1:15" ht="84" customHeight="1">
-      <c r="A3" s="378"/>
-      <c r="B3" s="378"/>
-      <c r="C3" s="378"/>
-      <c r="D3" s="378"/>
-      <c r="E3" s="378"/>
-      <c r="F3" s="378"/>
-      <c r="G3" s="378"/>
-      <c r="H3" s="378"/>
-      <c r="I3" s="378"/>
-      <c r="J3" s="378"/>
-      <c r="K3" s="378"/>
-      <c r="L3" s="378"/>
-      <c r="M3" s="378"/>
-      <c r="N3" s="378"/>
-      <c r="O3" s="378"/>
+      <c r="A3" s="367"/>
+      <c r="B3" s="367"/>
+      <c r="C3" s="367"/>
+      <c r="D3" s="367"/>
+      <c r="E3" s="367"/>
+      <c r="F3" s="367"/>
+      <c r="G3" s="367"/>
+      <c r="H3" s="367"/>
+      <c r="I3" s="367"/>
+      <c r="J3" s="367"/>
+      <c r="K3" s="367"/>
+      <c r="L3" s="367"/>
+      <c r="M3" s="367"/>
+      <c r="N3" s="367"/>
+      <c r="O3" s="367"/>
     </row>
     <row r="5" spans="1:15" ht="23.25">
-      <c r="B5" s="385" t="s">
-        <v>355</v>
-      </c>
-      <c r="C5" s="385"/>
-      <c r="D5" s="385"/>
-      <c r="E5" s="385"/>
-      <c r="F5" s="385"/>
+      <c r="B5" s="336" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5" s="336"/>
+      <c r="D5" s="336"/>
+      <c r="E5" s="336"/>
+      <c r="F5" s="336"/>
       <c r="G5" s="205"/>
       <c r="H5" s="205"/>
       <c r="I5" s="205"/>
@@ -13478,123 +13560,123 @@
     </row>
     <row r="6" spans="1:15" ht="23.25">
       <c r="B6" s="206" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C6" s="206" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D6" s="207" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E6" s="207" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="208" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G6" s="209"/>
       <c r="H6" s="210"/>
       <c r="I6" s="210"/>
       <c r="J6" s="210"/>
       <c r="K6" s="205"/>
-      <c r="L6" s="389" t="s">
-        <v>359</v>
-      </c>
-      <c r="M6" s="389"/>
-      <c r="N6" s="389"/>
-      <c r="O6" s="389"/>
+      <c r="L6" s="340" t="s">
+        <v>362</v>
+      </c>
+      <c r="M6" s="340"/>
+      <c r="N6" s="340"/>
+      <c r="O6" s="340"/>
     </row>
     <row r="7" spans="1:15" ht="23.25">
       <c r="B7" s="234" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C7" s="234" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D7" s="211">
         <v>10</v>
       </c>
       <c r="E7" s="211" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F7" s="235" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G7" s="212"/>
       <c r="H7" s="213"/>
       <c r="I7" s="213"/>
       <c r="J7" s="213"/>
       <c r="K7" s="214"/>
-      <c r="L7" s="390" t="s">
-        <v>364</v>
+      <c r="L7" s="341" t="s">
+        <v>367</v>
       </c>
       <c r="M7" s="215" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="N7" s="216" t="s">
-        <v>366</v>
-      </c>
-      <c r="O7" s="390" t="s">
-        <v>367</v>
+        <v>369</v>
+      </c>
+      <c r="O7" s="341" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="23.25">
       <c r="B8" s="234" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C8" s="234" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D8" s="211">
         <v>12</v>
       </c>
       <c r="E8" s="211" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F8" s="235" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G8" s="217"/>
       <c r="H8" s="218"/>
       <c r="I8" s="218"/>
       <c r="J8" s="218"/>
       <c r="K8" s="214"/>
-      <c r="L8" s="390"/>
-      <c r="M8" s="369" t="s">
-        <v>372</v>
-      </c>
-      <c r="N8" s="369"/>
-      <c r="O8" s="390"/>
+      <c r="L8" s="341"/>
+      <c r="M8" s="342" t="s">
+        <v>375</v>
+      </c>
+      <c r="N8" s="342"/>
+      <c r="O8" s="341"/>
     </row>
     <row r="9" spans="1:15" ht="23.25">
       <c r="B9" s="236" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C9" s="236" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D9" s="219">
         <v>10</v>
       </c>
       <c r="E9" s="219" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F9" s="237" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G9" s="220"/>
       <c r="H9" s="221"/>
       <c r="I9" s="221"/>
       <c r="J9" s="221"/>
       <c r="K9" s="214"/>
-      <c r="L9" s="390"/>
+      <c r="L9" s="341"/>
       <c r="M9" s="46" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="N9" s="50" t="s">
-        <v>376</v>
-      </c>
-      <c r="O9" s="390"/>
+        <v>379</v>
+      </c>
+      <c r="O9" s="341"/>
     </row>
     <row r="10" spans="1:15" ht="23.25">
       <c r="B10" s="205"/>
@@ -13607,84 +13689,84 @@
       <c r="I10" s="221"/>
       <c r="J10" s="221"/>
       <c r="K10" s="214"/>
-      <c r="L10" s="390"/>
+      <c r="L10" s="341"/>
       <c r="M10" s="49" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="N10" s="50" t="s">
-        <v>378</v>
-      </c>
-      <c r="O10" s="390"/>
+        <v>381</v>
+      </c>
+      <c r="O10" s="341"/>
     </row>
     <row r="11" spans="1:15" ht="23.25">
-      <c r="B11" s="371" t="s">
-        <v>379</v>
-      </c>
-      <c r="C11" s="372"/>
-      <c r="D11" s="372"/>
-      <c r="E11" s="372"/>
-      <c r="F11" s="372"/>
-      <c r="G11" s="372"/>
-      <c r="H11" s="373"/>
+      <c r="B11" s="345" t="s">
+        <v>382</v>
+      </c>
+      <c r="C11" s="346"/>
+      <c r="D11" s="346"/>
+      <c r="E11" s="346"/>
+      <c r="F11" s="346"/>
+      <c r="G11" s="346"/>
+      <c r="H11" s="347"/>
       <c r="I11" s="221"/>
       <c r="J11" s="221"/>
       <c r="K11" s="214"/>
-      <c r="L11" s="390"/>
+      <c r="L11" s="341"/>
       <c r="M11" s="49" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="N11" s="223" t="s">
-        <v>118</v>
-      </c>
-      <c r="O11" s="390"/>
+        <v>126</v>
+      </c>
+      <c r="O11" s="341"/>
     </row>
     <row r="12" spans="1:15" ht="23.25">
       <c r="B12" s="224" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C12" s="206" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D12" s="224" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E12" s="224" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F12" s="224" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G12" s="224" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H12" s="224" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I12" s="205"/>
       <c r="J12" s="205"/>
       <c r="K12" s="205"/>
-      <c r="L12" s="390"/>
-      <c r="M12" s="391" t="s">
-        <v>385</v>
-      </c>
-      <c r="N12" s="391"/>
-      <c r="O12" s="390"/>
+      <c r="L12" s="341"/>
+      <c r="M12" s="343" t="s">
+        <v>388</v>
+      </c>
+      <c r="N12" s="343"/>
+      <c r="O12" s="341"/>
     </row>
     <row r="13" spans="1:15" ht="23.25">
       <c r="B13" s="225" t="s">
-        <v>386</v>
-      </c>
-      <c r="C13" s="268" t="s">
-        <v>361</v>
+        <v>389</v>
+      </c>
+      <c r="C13" s="258" t="s">
+        <v>364</v>
       </c>
       <c r="D13" s="225" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E13" s="225">
         <v>800</v>
       </c>
-      <c r="F13" s="374" t="s">
-        <v>388</v>
+      <c r="F13" s="348" t="s">
+        <v>391</v>
       </c>
       <c r="G13" s="239">
         <f>400*600</f>
@@ -13697,29 +13779,29 @@
       <c r="I13" s="205"/>
       <c r="J13" s="205"/>
       <c r="K13" s="205"/>
-      <c r="L13" s="390"/>
+      <c r="L13" s="341"/>
       <c r="M13" s="46" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="N13" s="48" t="s">
-        <v>390</v>
-      </c>
-      <c r="O13" s="390"/>
+        <v>393</v>
+      </c>
+      <c r="O13" s="341"/>
     </row>
     <row r="14" spans="1:15" ht="23.25">
       <c r="B14" s="225" t="s">
-        <v>391</v>
-      </c>
-      <c r="C14" s="268" t="s">
-        <v>369</v>
+        <v>394</v>
+      </c>
+      <c r="C14" s="258" t="s">
+        <v>372</v>
       </c>
       <c r="D14" s="225" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E14" s="239">
         <v>1200</v>
       </c>
-      <c r="F14" s="375"/>
+      <c r="F14" s="349"/>
       <c r="G14" s="239">
         <f>600*650</f>
         <v>390000</v>
@@ -13731,29 +13813,29 @@
       <c r="I14" s="205"/>
       <c r="J14" s="205"/>
       <c r="K14" s="205"/>
-      <c r="L14" s="390"/>
+      <c r="L14" s="341"/>
       <c r="M14" s="49" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="N14" s="48" t="s">
-        <v>393</v>
-      </c>
-      <c r="O14" s="390"/>
+        <v>396</v>
+      </c>
+      <c r="O14" s="341"/>
     </row>
     <row r="15" spans="1:15" ht="23.25">
       <c r="B15" s="225" t="s">
-        <v>373</v>
-      </c>
-      <c r="C15" s="268" t="s">
-        <v>361</v>
+        <v>376</v>
+      </c>
+      <c r="C15" s="258" t="s">
+        <v>364</v>
       </c>
       <c r="D15" s="225" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E15" s="225">
         <v>800</v>
       </c>
-      <c r="F15" s="376"/>
+      <c r="F15" s="350"/>
       <c r="G15" s="239">
         <f>320*650</f>
         <v>208000</v>
@@ -13765,59 +13847,59 @@
       <c r="I15" s="205"/>
       <c r="J15" s="205"/>
       <c r="K15" s="205"/>
-      <c r="L15" s="390"/>
-      <c r="M15" s="369" t="s">
-        <v>394</v>
-      </c>
-      <c r="N15" s="369"/>
-      <c r="O15" s="390"/>
+      <c r="L15" s="341"/>
+      <c r="M15" s="342" t="s">
+        <v>397</v>
+      </c>
+      <c r="N15" s="342"/>
+      <c r="O15" s="341"/>
     </row>
     <row r="16" spans="1:15" ht="23.25">
       <c r="B16" s="225" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C16" s="225" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="225" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E16" s="225" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F16" s="239" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G16" s="239" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H16" s="240" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="I16" s="205"/>
       <c r="J16" s="205"/>
       <c r="K16" s="205"/>
-      <c r="L16" s="390"/>
+      <c r="L16" s="341"/>
       <c r="M16" s="46" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="N16" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="O16" s="390"/>
+        <v>403</v>
+      </c>
+      <c r="O16" s="341"/>
     </row>
     <row r="17" spans="2:15" ht="23.25">
       <c r="B17" s="225" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C17" s="225" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="225" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E17" s="225" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F17" s="239">
         <v>4000000</v>
@@ -13829,14 +13911,14 @@
       <c r="I17" s="205"/>
       <c r="J17" s="205"/>
       <c r="K17" s="205"/>
-      <c r="L17" s="390"/>
+      <c r="L17" s="341"/>
       <c r="M17" s="51" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="N17" s="100" t="s">
-        <v>403</v>
-      </c>
-      <c r="O17" s="390"/>
+        <v>406</v>
+      </c>
+      <c r="O17" s="341"/>
     </row>
     <row r="18" spans="2:15" ht="23.25">
       <c r="B18" s="226"/>
@@ -13849,14 +13931,14 @@
       <c r="I18" s="205"/>
       <c r="J18" s="205"/>
       <c r="K18" s="205"/>
-      <c r="L18" s="390"/>
+      <c r="L18" s="341"/>
       <c r="M18" s="229" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N18" s="230" t="s">
-        <v>214</v>
-      </c>
-      <c r="O18" s="390"/>
+        <v>217</v>
+      </c>
+      <c r="O18" s="341"/>
     </row>
     <row r="19" spans="2:15" ht="23.25">
       <c r="B19" s="205"/>
@@ -13869,12 +13951,12 @@
       <c r="I19" s="205"/>
       <c r="J19" s="205"/>
       <c r="K19" s="205"/>
-      <c r="L19" s="390"/>
-      <c r="M19" s="369" t="s">
-        <v>372</v>
-      </c>
-      <c r="N19" s="370"/>
-      <c r="O19" s="390"/>
+      <c r="L19" s="341"/>
+      <c r="M19" s="342" t="s">
+        <v>375</v>
+      </c>
+      <c r="N19" s="344"/>
+      <c r="O19" s="341"/>
     </row>
     <row r="20" spans="2:15" ht="23.25">
       <c r="B20" s="205"/>
@@ -13887,21 +13969,21 @@
       <c r="I20" s="205"/>
       <c r="J20" s="205"/>
       <c r="K20" s="205"/>
-      <c r="L20" s="390"/>
+      <c r="L20" s="341"/>
       <c r="M20" s="46" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="N20" s="48" t="s">
-        <v>405</v>
-      </c>
-      <c r="O20" s="390"/>
+        <v>408</v>
+      </c>
+      <c r="O20" s="341"/>
     </row>
     <row r="21" spans="2:15" ht="23.25">
-      <c r="B21" s="386" t="s">
-        <v>406</v>
-      </c>
-      <c r="C21" s="387"/>
-      <c r="D21" s="388"/>
+      <c r="B21" s="337" t="s">
+        <v>409</v>
+      </c>
+      <c r="C21" s="338"/>
+      <c r="D21" s="339"/>
       <c r="E21" s="231"/>
       <c r="F21" s="205"/>
       <c r="G21" s="205"/>
@@ -13909,24 +13991,24 @@
       <c r="I21" s="205"/>
       <c r="J21" s="205"/>
       <c r="K21" s="205"/>
-      <c r="L21" s="390"/>
+      <c r="L21" s="341"/>
       <c r="M21" s="46" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="N21" s="47" t="s">
-        <v>408</v>
-      </c>
-      <c r="O21" s="390"/>
+        <v>411</v>
+      </c>
+      <c r="O21" s="341"/>
     </row>
     <row r="22" spans="2:15" ht="23.25">
       <c r="B22" s="207" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C22" s="207" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D22" s="207" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E22" s="205"/>
       <c r="F22" s="205"/>
@@ -13935,22 +14017,22 @@
       <c r="I22" s="205"/>
       <c r="J22" s="205"/>
       <c r="K22" s="205"/>
-      <c r="L22" s="390"/>
-      <c r="M22" s="369" t="s">
-        <v>385</v>
-      </c>
-      <c r="N22" s="370"/>
-      <c r="O22" s="390"/>
+      <c r="L22" s="341"/>
+      <c r="M22" s="342" t="s">
+        <v>388</v>
+      </c>
+      <c r="N22" s="344"/>
+      <c r="O22" s="341"/>
     </row>
     <row r="23" spans="2:15" ht="23.25">
       <c r="B23" s="211" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C23" s="211" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D23" s="211" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E23" s="205"/>
       <c r="F23" s="205"/>
@@ -13959,24 +14041,24 @@
       <c r="I23" s="205"/>
       <c r="J23" s="205"/>
       <c r="K23" s="205"/>
-      <c r="L23" s="390"/>
+      <c r="L23" s="341"/>
       <c r="M23" s="46" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="N23" s="48" t="s">
-        <v>416</v>
-      </c>
-      <c r="O23" s="390"/>
+        <v>419</v>
+      </c>
+      <c r="O23" s="341"/>
     </row>
     <row r="24" spans="2:15" ht="23.25">
       <c r="B24" s="211" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C24" s="211" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D24" s="211" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E24" s="205"/>
       <c r="F24" s="205"/>
@@ -13985,24 +14067,24 @@
       <c r="I24" s="205"/>
       <c r="J24" s="205"/>
       <c r="K24" s="205"/>
-      <c r="L24" s="390"/>
+      <c r="L24" s="341"/>
       <c r="M24" s="46" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="N24" s="48" t="s">
-        <v>421</v>
-      </c>
-      <c r="O24" s="390"/>
+        <v>424</v>
+      </c>
+      <c r="O24" s="341"/>
     </row>
     <row r="25" spans="2:15" ht="23.25">
       <c r="B25" s="211" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C25" s="211" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D25" s="211" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E25" s="205"/>
       <c r="F25" s="205"/>
@@ -14011,22 +14093,22 @@
       <c r="I25" s="205"/>
       <c r="J25" s="205"/>
       <c r="K25" s="205"/>
-      <c r="L25" s="390"/>
-      <c r="M25" s="369" t="s">
-        <v>394</v>
-      </c>
-      <c r="N25" s="370"/>
-      <c r="O25" s="390"/>
+      <c r="L25" s="341"/>
+      <c r="M25" s="342" t="s">
+        <v>397</v>
+      </c>
+      <c r="N25" s="344"/>
+      <c r="O25" s="341"/>
     </row>
     <row r="26" spans="2:15" ht="23.25">
       <c r="B26" s="211" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C26" s="211" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D26" s="211" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E26" s="205"/>
       <c r="F26" s="205"/>
@@ -14035,24 +14117,24 @@
       <c r="I26" s="205"/>
       <c r="J26" s="205"/>
       <c r="K26" s="205"/>
-      <c r="L26" s="390"/>
+      <c r="L26" s="341"/>
       <c r="M26" s="46" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="N26" s="48" t="s">
-        <v>429</v>
-      </c>
-      <c r="O26" s="390"/>
+        <v>432</v>
+      </c>
+      <c r="O26" s="341"/>
     </row>
     <row r="27" spans="2:15" ht="23.25">
       <c r="B27" s="219" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C27" s="219" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D27" s="219" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E27" s="205"/>
       <c r="F27" s="205"/>
@@ -14061,14 +14143,14 @@
       <c r="I27" s="205"/>
       <c r="J27" s="205"/>
       <c r="K27" s="205"/>
-      <c r="L27" s="390"/>
+      <c r="L27" s="341"/>
       <c r="M27" s="46" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="N27" s="48" t="s">
-        <v>434</v>
-      </c>
-      <c r="O27" s="390"/>
+        <v>437</v>
+      </c>
+      <c r="O27" s="341"/>
     </row>
     <row r="28" spans="2:15" ht="23.25">
       <c r="B28" s="241"/>
@@ -14088,16 +14170,16 @@
     </row>
     <row r="29" spans="2:15" ht="23.25">
       <c r="B29" s="246" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C29" s="246" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D29" s="246" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E29" s="246" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F29" s="205"/>
       <c r="G29" s="205"/>
@@ -14106,10 +14188,10 @@
       <c r="J29" s="205"/>
       <c r="K29" s="205"/>
       <c r="L29" s="205"/>
-      <c r="M29" s="383" t="s">
-        <v>436</v>
-      </c>
-      <c r="N29" s="384"/>
+      <c r="M29" s="355" t="s">
+        <v>439</v>
+      </c>
+      <c r="N29" s="356"/>
       <c r="O29" s="205"/>
     </row>
     <row r="30" spans="2:15" ht="23.25">
@@ -14118,10 +14200,10 @@
         <v>2000000</v>
       </c>
       <c r="C30" s="211" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D30" s="211" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E30" s="211">
         <v>0.88</v>
@@ -14134,10 +14216,10 @@
       <c r="K30" s="205"/>
       <c r="L30" s="205"/>
       <c r="M30" s="232" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="N30" s="233" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="O30" s="205"/>
     </row>
@@ -14147,10 +14229,10 @@
         <v>4000000</v>
       </c>
       <c r="C31" s="211" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D31" s="211" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E31" s="211">
         <v>1.89</v>
@@ -14162,10 +14244,10 @@
       <c r="J31" s="205"/>
       <c r="K31" s="205"/>
       <c r="L31" s="205"/>
-      <c r="M31" s="379" t="s">
-        <v>372</v>
-      </c>
-      <c r="N31" s="380"/>
+      <c r="M31" s="351" t="s">
+        <v>375</v>
+      </c>
+      <c r="N31" s="352"/>
       <c r="O31" s="205"/>
     </row>
     <row r="32" spans="2:15" ht="69">
@@ -14174,10 +14256,10 @@
         <v>10000000</v>
       </c>
       <c r="C32" s="211" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D32" s="211" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E32" s="211">
         <v>4.66</v>
@@ -14190,10 +14272,10 @@
       <c r="K32" s="205"/>
       <c r="L32" s="205"/>
       <c r="M32" s="51" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="N32" s="52" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="O32" s="205"/>
     </row>
@@ -14203,10 +14285,10 @@
         <v>25000000</v>
       </c>
       <c r="C33" s="211" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D33" s="211" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="E33" s="211">
         <v>6.36</v>
@@ -14219,10 +14301,10 @@
       <c r="K33" s="205"/>
       <c r="L33" s="205"/>
       <c r="M33" s="51" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="N33" s="52" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="O33" s="205"/>
     </row>
@@ -14239,10 +14321,10 @@
       <c r="J34" s="205"/>
       <c r="K34" s="205"/>
       <c r="L34" s="205"/>
-      <c r="M34" s="379" t="s">
-        <v>385</v>
-      </c>
-      <c r="N34" s="380"/>
+      <c r="M34" s="351" t="s">
+        <v>388</v>
+      </c>
+      <c r="N34" s="352"/>
       <c r="O34" s="205"/>
     </row>
     <row r="35" spans="1:15" ht="69">
@@ -14258,10 +14340,10 @@
       <c r="K35" s="205"/>
       <c r="L35" s="205"/>
       <c r="M35" s="51" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="N35" s="52" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="O35" s="205"/>
     </row>
@@ -14278,10 +14360,10 @@
       <c r="K36" s="205"/>
       <c r="L36" s="205"/>
       <c r="M36" s="51" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="N36" s="52" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="O36" s="205"/>
     </row>
@@ -14297,10 +14379,10 @@
       <c r="J37" s="205"/>
       <c r="K37" s="205"/>
       <c r="L37" s="205"/>
-      <c r="M37" s="379" t="s">
-        <v>394</v>
-      </c>
-      <c r="N37" s="380"/>
+      <c r="M37" s="351" t="s">
+        <v>397</v>
+      </c>
+      <c r="N37" s="352"/>
       <c r="O37" s="205"/>
     </row>
     <row r="38" spans="1:15" ht="69">
@@ -14316,10 +14398,10 @@
       <c r="K38" s="205"/>
       <c r="L38" s="205"/>
       <c r="M38" s="51" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="N38" s="52" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="O38" s="205"/>
     </row>
@@ -14336,10 +14418,10 @@
       <c r="K39" s="205"/>
       <c r="L39" s="205"/>
       <c r="M39" s="51" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="N39" s="52" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="O39" s="205"/>
     </row>
@@ -14356,10 +14438,10 @@
       <c r="K40" s="205"/>
       <c r="L40" s="205"/>
       <c r="M40" s="232" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="N40" s="233" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="O40" s="205"/>
     </row>
@@ -14375,10 +14457,10 @@
       <c r="J41" s="205"/>
       <c r="K41" s="205"/>
       <c r="L41" s="205"/>
-      <c r="M41" s="381" t="s">
-        <v>372</v>
-      </c>
-      <c r="N41" s="382"/>
+      <c r="M41" s="353" t="s">
+        <v>375</v>
+      </c>
+      <c r="N41" s="354"/>
       <c r="O41" s="205"/>
     </row>
     <row r="42" spans="1:15" ht="69">
@@ -14394,10 +14476,10 @@
       <c r="K42" s="205"/>
       <c r="L42" s="205"/>
       <c r="M42" s="51" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="N42" s="52" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="O42" s="205"/>
     </row>
@@ -14414,10 +14496,10 @@
       <c r="K43" s="205"/>
       <c r="L43" s="205"/>
       <c r="M43" s="51" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="N43" s="52" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O43" s="205"/>
     </row>
@@ -14433,10 +14515,10 @@
       <c r="J44" s="205"/>
       <c r="K44" s="205"/>
       <c r="L44" s="205"/>
-      <c r="M44" s="379" t="s">
-        <v>385</v>
-      </c>
-      <c r="N44" s="380"/>
+      <c r="M44" s="351" t="s">
+        <v>388</v>
+      </c>
+      <c r="N44" s="352"/>
       <c r="O44" s="205"/>
     </row>
     <row r="45" spans="1:15" ht="69">
@@ -14452,10 +14534,10 @@
       <c r="K45" s="205"/>
       <c r="L45" s="205"/>
       <c r="M45" s="51" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="N45" s="52" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="O45" s="205"/>
     </row>
@@ -14472,10 +14554,10 @@
       <c r="K46" s="205"/>
       <c r="L46" s="205"/>
       <c r="M46" s="51" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="N46" s="52" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="O46" s="205"/>
     </row>
@@ -14491,10 +14573,10 @@
       <c r="J47" s="205"/>
       <c r="K47" s="205"/>
       <c r="L47" s="205"/>
-      <c r="M47" s="379" t="s">
-        <v>394</v>
-      </c>
-      <c r="N47" s="380"/>
+      <c r="M47" s="351" t="s">
+        <v>397</v>
+      </c>
+      <c r="N47" s="352"/>
       <c r="O47" s="205"/>
     </row>
     <row r="48" spans="1:15" ht="69">
@@ -14510,10 +14592,10 @@
       <c r="K48" s="205"/>
       <c r="L48" s="205"/>
       <c r="M48" s="51" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="N48" s="52" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O48" s="205"/>
     </row>
@@ -14530,10 +14612,10 @@
       <c r="K49" s="205"/>
       <c r="L49" s="205"/>
       <c r="M49" s="51" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="N49" s="52" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="O49" s="205"/>
     </row>
